--- a/spreadsheets/practical.xlsx
+++ b/spreadsheets/practical.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,1147 +441,1282 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Reference link</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Reference</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Title</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Venue</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Code</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Input</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Output</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Dataset</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Metrics</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Pipeline</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2020_T-ITS_Deng</t>
+          <t>https://doi.org/10.1109/TITS.2021.3053178</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>How Do Drivers Allocate Their Potential Attention? Driving Fixation Prediction via Convolutional Neural Networks</t>
+          <t>2021_T-ITS_Lateef</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Saliency Heat-Map as Visual Attention for Autonomous Driving Using Generative Adversarial Network (GAN)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>T-ITS</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>2020</v>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="E2" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>RGB</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>1 frame</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>saliency map</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Deng \etal 2020</t>
-        </is>
-      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>AUC, NSS, IG, CC, SIM, EMD, KLDiv</t>
+          <t>VADD</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>conv-deconv CNN</t>
+          <t>MSE, PSNR, FID, WD, KLDiv, AUCCC, NSS</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2019_WACV_Tavakoli</t>
+          <t>https://doi.org/10.1109/TITS.2021.3055120</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Digging Deeper into Egocentric Gaze Prediction</t>
+          <t>2021_T-ITS_Amadori</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>WACV</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2019</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>RGB, OF</t>
-        </is>
+          <t>HammerDrive: A Task-Aware Driving Visual Attention Model</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>T-ITS</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2021</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1 frame</t>
+          <t>RGB, EV</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>16 frames</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>saliency map</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>USC Video Games</t>
-        </is>
-      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>AUC, NSS</t>
+          <t>custom: sim</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>GRU</t>
+          <t>KLDiv, CC, SIM, IG</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2019_ITSC_Ning</t>
+          <t>https://doi.org/10.1109/TITS.2019.2915540</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>An Efficient Model for Driving Focus of Attention Prediction using Deep Learning</t>
+          <t>2020_T-ITS_Deng</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ITSC</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2019</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>RGB, OF</t>
-        </is>
+          <t>How Do Drivers Allocate Their Potential Attention? Driving Fixation Prediction via Convolutional Neural Networks</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>T-ITS</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>2020</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>RGB</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>1 frame</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>saliency map</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>DR(eye)VE</t>
-        </is>
-      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>CC, KLDiv, IG</t>
+          <t>Deng \etal 2020</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>AUC, NSS, IG, CC, SIM, EMD, KLDiv</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2018_T-ITS_Deng</t>
+          <t>https://openaccess.thecvf.com/content_CVPR_2020/papers/Pal_Looking_at_the_Right_Stuff_-_Guided_Semantic-Gaze_for_Autonomous_CVPR_2020_paper.pdf</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Learning to Boost Bottom-Up Fixation Prediction in Driving Environments via Random Forest</t>
+          <t>2020_CVPR_Pal</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>T-ITS</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>2018</v>
+          <t>“Looking at the right stuff” - Guided semantic-gaze for autonomous driving</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CVPR</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2020</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>https://sites.google.com/eng.ucsd.edu/sage-net</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>RGB</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1 frame</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>16 frames</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>saliency map</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Deng \etal 2018</t>
-        </is>
-      </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>AUC, ROC, NSS</t>
+          <t>DR(eye)VE; BDD-A; JAAD</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>KLDiv, CC for fixation-based, F-score, MAE for segmentation based</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2018_PAMI_Palazzi</t>
+          <t>https://arxiv.org/pdf/2003.06045.pdf</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Predicting the Driver’s Focus of Attention: the DR(eye)VE Project</t>
+          <t>2020_arXiv_Zhang</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PAMI</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>RGB, OF, SM</t>
-        </is>
+          <t>Interaction Graphs for Object Importance Estimation in On-road Driving Videos</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>arXiv</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2020</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>RGB</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>16 frames</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>saliency map</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>DR(eye)VE</t>
+          <t>bbox + importance score</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>CC, KLDiv, IG</t>
+          <t>2019_ICRA_Gao</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>multi-branch enc-dec C3D</t>
+          <t>AP</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2018_ITSC_Tawari</t>
+          <t>https://doi.org/10.1109/WACV.2019.00035</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Learning to Attend to Salient Targets in Driving Videos Using Fully Convolutional RNN</t>
+          <t>2019_WACV_Tavakoli</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ITSC</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>RGB</t>
-        </is>
+          <t>Digging Deeper into Egocentric Gaze Prediction</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>WACV</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2019</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2 frames</t>
+          <t>RGB, OF</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>1 frame</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>saliency map</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>custom: on-road</t>
-        </is>
-      </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>PR curve, CC, mAP</t>
+          <t>USC Video Games</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>CNN+ConvLSTM</t>
+          <t>AUC, NSS</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2018_ACCV_Xia</t>
+          <t>https://doi.org/10.1109/IVS.2019.8814210</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Predicting Driver Attention in Critical Situations</t>
+          <t>2019_IV_Rahimpour</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ACCV</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>RGB</t>
-        </is>
+          <t>Context Aware Road-user Importance Estimation (iCARE)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2019</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>6 frames</t>
+          <t>RGB, EV</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>saliency map</t>
+          <t>1 frame</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>BDD-A</t>
+          <t>bbox + importance score, ego-vehicle path</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>KLDiv, CC</t>
+          <t>custom: on-road</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>CNN+ConvLSTM</t>
+          <t>PR curve, F-score</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2017_WACV_Palmer</t>
+          <t>https://doi.org/10.1109/ITSC.2019.8917337</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Predicting the Perceptual Demands of Urban Driving with Video Regression</t>
+          <t>2019_ITSC_Ning</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>WACV</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>2017</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>RGB</t>
-        </is>
+          <t>An Efficient Model for Driving Focus of Attention Prediction using Deep Learning</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ITSC</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2019</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>16 frames</t>
+          <t>RGB, OF</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>complexity score</t>
+          <t>1 frame</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>custom: on-road</t>
+          <t>saliency map</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>DR(eye)VE</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>C3D+regression</t>
+          <t>CC, KLDiv, IG</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2017_PR_Ohn-Bar</t>
+          <t>https://doi.org/10.1109/ICRA.2019.8793970</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Are all objects equal? Deep spatio-temporal importance prediction in driving videos</t>
+          <t>2019_ICRA_Gao</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Pattern Recognition</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>2017</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>RGB, BB, EV</t>
-        </is>
+          <t>Goal-oriented object importance estimation in on-road driving videos</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ICRA</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2019</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2-3 s</t>
+          <t>RGB, EV</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>BB + importance score</t>
+          <t>30 frames, path</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>KITTI</t>
+          <t>bbox + importance score</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>PR curve, mAP</t>
+          <t>custom: on-road</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>regression</t>
+          <t>AP, mAP</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2017_IV_Tawari</t>
+          <t>https://doi.org/10.1109/TITS.2017.2766216</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>A Computational Framework for Driver’s Visual Attention Using A Fully Convolutional Architecture</t>
+          <t>2018_T-ITS_Deng</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>IV</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>2017</v>
-      </c>
-      <c r="F11" t="inlineStr">
+          <t>Learning to Boost Bottom-Up Fixation Prediction in Driving Environments via Random Forest</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>T-ITS</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2018</v>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>RGB</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>1 frame</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>saliency map</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>DR(eye)VE</t>
-        </is>
-      </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>CC</t>
+          <t>Deng \etal 2018</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>FCN</t>
+          <t>AUC, ROC, NSS</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2017_IV_Palazzi</t>
+          <t>https://doi.org/10.1109/TPAMI.2018.2845370</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Learning Where to Attend Like a Human Driver</t>
+          <t>2018_PAMI_Palazzi</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>IV</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>2017</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>https://github.com/francescosolera/dreyeving</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>RGB</t>
-        </is>
+          <t>Predicting the Driver’s Focus of Attention: the DR(eye)VE Project</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>PAMI</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2018</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>RGB, OF, SM</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>16 frames</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>saliency map</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>DR(eye)VE</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>CC, KLDiv</t>
-        </is>
-      </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>multi-branch enc-dec C3D</t>
+          <t>CC, KLDiv, IG</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2016_T-ITS_Deng</t>
+          <t>https://doi.org/10.1109/ITSC.2018.8569438</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Where Does the Driver Look? Top-Down-Based Saliency Detection in a Traffic Driving Environment</t>
+          <t>2018_ITSC_Tawari</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>T-ITS</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>https://github.com/taodeng/Top-down-based-traffic-driving-saliency-model</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+          <t>Learning to Attend to Salient Targets in Driving Videos Using Fully Convolutional RNN</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ITSC</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2018</v>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>RGB</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1 frame</t>
-        </is>
-      </c>
       <c r="H13" t="inlineStr">
         <is>
+          <t>2 frames</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>saliency map</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>custom: on-road</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>AUC, ROC, NSS</t>
-        </is>
-      </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>heuristic</t>
+          <t>PR curve, CC, mAP</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2014_TransSysManCybernetics_Borji</t>
+          <t>https://doi.org/10.1007/978-3-030-20873-8_42</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>What/Where to Look Next? Modeling Top-Down Visual Attention in Complex Interactive Environments</t>
+          <t>2018_ACCV_Xia</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Transactions on Systems, Man, and Cybernetics Systems</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>2014</v>
-      </c>
-      <c r="F14" t="inlineStr">
+          <t>Predicting Driver Attention in Critical Situations</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ACCV</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>2018</v>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>RGB</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>1 frame</t>
-        </is>
-      </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>6 frames</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>saliency map</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>USC Video Games</t>
-        </is>
-      </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>AUC, NSS</t>
+          <t>BDD-A</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>ML</t>
+          <t>KLDiv, CC</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2013_TR_Wortelen</t>
+          <t>https://doi.org/10.1109/WACV.2017.52</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Dynamic simulation and prediction of drivers’ attention distribution</t>
+          <t>2017_WACV_Palmer</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Transportation Research Part F</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>2013</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>SIM</t>
-        </is>
+          <t>Predicting the Perceptual Demands of Urban Driving with Video Regression</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>WACV</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2017</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>10 s</t>
+          <t>RGB</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>gaze AOI + duration</t>
+          <t>16 frames</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>custom: sim</t>
+          <t>complexity score</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>correlation, RMSE, qualitative</t>
+          <t>custom: on-road</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>accuracy</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2013_RSTB_Johnson</t>
+          <t>https://doi.org/10.1016/j.patcog.2016.08.029</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Predicting human visuomotor behaviour in a driving task</t>
+          <t>2017_PR_Ohn-Bar</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Philosophical Transactions of the Royal Society: B</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>2013</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>https://github.com/EmbodiedCognition/driving-simulator</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>SIM</t>
-        </is>
+          <t>Are all objects equal? Deep spatio-temporal importance prediction in driving videos</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Pattern Recognition</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>2017</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1 timestep</t>
+          <t>RGB, BB, EV</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>gaze AOI + duration</t>
+          <t>2-3 s</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>custom: sim</t>
+          <t>BB + importance score</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>KLDiv, qualitative</t>
+          <t>KITTI</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>PR curve, mAP</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2012_CVPR_Borji</t>
+          <t>https://doi.org/10.1109/IVS.2017.7995828</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Probabilistic Learning of Task-Specific Visual Attention</t>
+          <t>2017_IV_Tawari</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CVPR</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>2012</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>http://ilab.usc.edu/borji/Resources.html</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>RGB, PG, EV</t>
-        </is>
+          <t>A Computational Framework for Driver’s Visual Attention Using A Fully Convolutional Architecture</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>2017</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
+          <t>RGB</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
           <t>1 frame</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>saliency map</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>USC Video Games</t>
-        </is>
-      </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>NSS, AUC</t>
+          <t>DR(eye)VE</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>ML</t>
+          <t>CC</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2011_BMVC_Borji</t>
+          <t>https://doi.org/10.1109/IVS.2017.7995833</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Computational Modeling of Top-down Visual Attention in Interactive Environments</t>
+          <t>2017_IV_Palazzi</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>BMVC</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>2011</v>
+          <t>Learning Where to Attend Like a Human Driver</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>2017</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>https://github.com/francescosolera/dreyeving</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>RGB</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>1 frame</t>
-        </is>
-      </c>
       <c r="H18" t="inlineStr">
         <is>
+          <t>16 frames</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>saliency map</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>USC Video Games</t>
-        </is>
-      </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>NSS, AUC</t>
+          <t>DR(eye)VE</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>ML</t>
+          <t>CC, KLDiv</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2016_arXiv_Bojarski_1</t>
+          <t>https://doi.org/10.1109/TITS.2016.2535402</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>VisualBackProp: visualizing CNNs for autonomous driving</t>
+          <t>2016_T-ITS_Deng</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>arXiv</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
+          <t>Where Does the Driver Look? Top-Down-Based Saliency Detection in a Traffic Driving Environment</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>T-ITS</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
         <v>2016</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>https://github.com/taodeng/Top-down-based-traffic-driving-saliency-model</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>RGB</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>1 frame</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>saliency map</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>custom: on-road</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>qualitative</t>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>AUC, ROC, NSS</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2020_CVPR_Pal</t>
+          <t>https://arxiv.org/pdf/1611.05418v1.pdf</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>“Looking at the right stuff” - Guided semantic-gaze for autonomous driving</t>
+          <t>2016_arXiv_Bojarski_1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CVPR</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>https://sites.google.com/eng.ucsd.edu/sage-net</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
+          <t>VisualBackProp: visualizing CNNs for autonomous driving</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>arXiv</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>2016</v>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>RGB</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>16 frames</t>
-        </is>
-      </c>
       <c r="H20" t="inlineStr">
         <is>
+          <t>1 frame</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>saliency map</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>DR(eye)VE; BDD-A; JAAD</t>
-        </is>
-      </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>KLDiv, CC for fixation-based, F-score, MAE for segmentation based</t>
+          <t>custom: on-road</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>qualitative</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2020_arXiv_Zhang</t>
+          <t>https://doi.org/10.1109/TSMC.2013.2279715</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Interaction Graphs for Object Importance Estimation in On-road Driving Videos</t>
+          <t>2014_TransSysManCybernetics_Borji</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>arXiv</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>2020</v>
-      </c>
-      <c r="F21" t="inlineStr">
+          <t>What/Where to Look Next? Modeling Top-Down Visual Attention in Complex Interactive Environments</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Transactions on Systems, Man, and Cybernetics Systems</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>2014</v>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>RGB</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>16 frames</t>
-        </is>
-      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>bbox + importance score</t>
+          <t>1 frame</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2019_ICRA_Gao</t>
+          <t>saliency map</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>USC Video Games</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>AUC, NSS</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2019_IV_Rahimpour</t>
+          <t>https://doi.org/10.1016/j.trf.2013.09.019</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Context Aware Road-user Importance Estimation (iCARE)</t>
+          <t>2013_TR_Wortelen</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>IV</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>2019</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>RGB, EV</t>
-        </is>
+          <t>Dynamic simulation and prediction of drivers’ attention distribution</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Transportation Research Part F</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>2013</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1 frame</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>bbox + importance score, ego-vehicle path</t>
+          <t>10 s</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>custom: on-road</t>
+          <t>gaze AOI + duration</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>PR curve, F-score</t>
+          <t>custom: sim</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>correlation, RMSE, qualitative</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2019_ICRA_Gao</t>
+          <t>https://doi.org/10.1098/rstb.2013.0044</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Goal-oriented object importance estimation in on-road driving videos</t>
+          <t>2013_RSTB_Johnson</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ICRA</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>2019</v>
+          <t>Predicting human visuomotor behaviour in a driving task</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Philosophical Transactions of the Royal Society: B</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>2013</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>RGB, EV</t>
+          <t>https://github.com/EmbodiedCognition/driving-simulator</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>30 frames, path</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>bbox + importance score</t>
+          <t>1 timestep</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>custom: on-road</t>
+          <t>gaze AOI + duration</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>AP, mAP</t>
+          <t>custom: sim</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>KLDiv, qualitative</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/CVPR.2012.6247710</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2012_CVPR_Borji</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Probabilistic Learning of Task-Specific Visual Attention</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>CVPR</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>2012</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>http://ilab.usc.edu/borji/Resources.html</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>RGB, PG, EV</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>1 frame</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>saliency map</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>USC Video Games</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>NSS, AUC</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>http://www.bmva.org/bmvc/2011/proceedings/paper85/paper85.pdf</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2011_BMVC_Borji</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Computational Modeling of Top-down Visual Attention in Interactive Environments</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>BMVC</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>2011</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>RGB</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>1 frame</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>saliency map</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>USC Video Games</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>NSS, AUC</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1731,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1607,50 +1742,55 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Reference link</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Reference</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Title</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Venue</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Input</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Output</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>AOIs</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Dataset</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Metrics</t>
         </is>
@@ -1659,279 +1799,317 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2018_TIV_Vora</t>
+          <t>https://doi.org/10.1109/IV47402.2020.9304573</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Driver Gaze Zone Estimation using Convolutional Neural Networks: A General Framework and Ablative Analysis</t>
+          <t>2020_IV_Rangesh</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>T-ITS</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>RGB</t>
-        </is>
+          <t>Driver Gaze Estimation in the Real World: Overcoming the Eyeglass Challenge</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>2020</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>RGB, NIR</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>1 frame</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>AOI</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>6+EC</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>custom: on-road, Columbia Gaze Dataset</t>
-        </is>
+      <c r="I2" t="n">
+        <v>7</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>accuracy, confusion matrix</t>
+          <t>LISA v3</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>accuracy</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2018_ITSC_Jha</t>
+          <t>https://doi.org/10.1145/3382507.3417967</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Probabilistic Estimation of the Gaze Region of the Driver using Dense Classification</t>
+          <t>2020_ICMI_Stappen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ITSC</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>head pose</t>
-        </is>
+          <t>X-AWARE: ConteXt-AWARE Human-Environment Attention Fusion for Driver Gaze Prediction in the Wild</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ICMI</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2020</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1 timestep</t>
+          <t>RGB</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>saliency map</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2018_IROS_Wang.pdf</t>
-        </is>
+          <t>1 frame</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>AOI</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>9</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>DGW</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>accuracy, F1, unweighted average recall (UAR)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2017_IV_Vora</t>
+          <t>https://doi.org/10.1177/0018720820927687</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>On Generalizing Driver Gaze Zone Estimation using Convolutional Neural Networks</t>
+          <t>2020_HumanFactors_Jokinen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>IV</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2017</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>RGB</t>
-        </is>
+          <t>Multitasking in Driving as Optimal Adaptation Under Uncertainty</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Human Factors</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>2020</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1 frame</t>
+          <t>gaze direction, SIM</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>1 timestep</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>AOI</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>6+EC</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>custom: on-road</t>
-        </is>
+      <c r="I4" t="n">
+        <v>2</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>custom: sim</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>accuracy, qualitative</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2016_T-ITS_Lundgren</t>
+          <t>https://doi.org/10.1109/TIV.2018.2843120</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Driver-Gaze Zone Estimation Using Bayesian Filtering and Gaussian Processes</t>
+          <t>2018_TIV_Vora</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>Driver Gaze Zone Estimation using Convolutional Neural Networks: A General Framework and Ablative Analysis</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>T-ITS</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>head pose, gaze direction, eye closure</t>
+      <c r="E5" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>RGB</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>1 frame</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>AOI</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>custom: on-road</t>
+          <t>6+EC</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>ROC curve, TP rate</t>
+          <t>custom: on-road, Columbia Gaze Dataset</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>accuracy, confusion matrix</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2016_ITSC_Vasli</t>
+          <t>https://doi.org/10.1109/ITSC.2018.8569709</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>On Driver Gaze Estimation: Explorations and Fusion of Geometric and Data Driven Approaches</t>
+          <t>2018_ITSC_Jha</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>Probabilistic Estimation of the Gaze Region of the Driver using Dense Classification</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>ITSC</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>RGB</t>
-        </is>
+      <c r="E6" t="n">
+        <v>2018</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1 frame</t>
+          <t>head pose</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>AOI</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>custom: on-road</t>
+          <t>1 timestep</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>saliency map</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>accuracy, confusion matrix</t>
+          <t>2018_IROS_Wang.pdf</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>accuracy</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2016_IS_Fridman</t>
+          <t>https://doi.org/10.1109/IVS.2017.7995822</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Driver Gaze Region Estimation without Use of Eye Movement</t>
+          <t>2017_IV_Vora</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Pattern Recognition</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E7" t="inlineStr">
+          <t>On Generalizing Driver Gaze Zone Estimation using Convolutional Neural Networks</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>RGB</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>1 frame</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>AOI</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>6+EC</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>custom: on-road</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>accuracy</t>
         </is>
@@ -1940,290 +2118,471 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2016_IET_Fridman</t>
+          <t>https://doi.org/10.1109/TITS.2016.2526050</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>‘Owl’ and ‘Lizard’: patterns of head pose and eye pose in driver gaze classification</t>
+          <t>2016_T-ITS_Lundgren</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>IET Computer Vision</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
+          <t>Driver-Gaze Zone Estimation Using Bayesian Filtering and Gaussian Processes</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>T-ITS</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>2016</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>RGB</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1 frame</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+          <t>head pose, gaze direction, eye closure</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>AOI</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>11</v>
-      </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>custom: on-road</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>accuracy</t>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>ROC curve, TP rate</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2016_BigComp_Choi</t>
+          <t>https://doi.org/10.1109/ITSC.2016.7795623</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Real-time categorization of driver’s gaze zone using the deep learning techniques</t>
+          <t>2016_ITSC_Vasli</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>International Conference on Big Data and Smart Computing</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
+          <t>On Driver Gaze Estimation: Explorations and Fusion of Geometric and Data Driven Approaches</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ITSC</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>2016</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>RGB</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>1 frame</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>AOI</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>8+EC</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
+      <c r="I9" t="n">
+        <v>6</v>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>custom: on-road</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>accuracy</t>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>accuracy, confusion matrix</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2014_IV_Tawari</t>
+          <t>https://doi.org/10.1109/MIS.2016.47</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Robust and Continuous Estimation of Driver Gaze Zone by Dynamic Analysis of Multiple Face Videos</t>
+          <t>2016_IS_Fridman</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>IV</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>2014</v>
-      </c>
-      <c r="E10" t="inlineStr">
+          <t>Driver Gaze Region Estimation without Use of Eye Movement</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Pattern Recognition</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2016</v>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>RGB</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6s</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>1 frame</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>AOI</t>
         </is>
       </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-      <c r="I10" t="inlineStr">
+      <c r="I10" t="n">
+        <v>6</v>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>custom: on-road</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>accuracy, confusion matrix</t>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>accuracy</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2014_ITSC_Tawari</t>
+          <t>https://doi.org/10.1049/iet-cvi.2015.0296</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Where is the driver looking: Analysis of Head, Eye and Iris for Robust Gaze Zone Estimation</t>
+          <t>2016_IET_Fridman</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ITSC</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>2014</v>
-      </c>
-      <c r="E11" t="inlineStr">
+          <t>‘Owl’ and ‘Lizard’: patterns of head pose and eye pose in driver gaze classification</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>IET Computer Vision</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2016</v>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>RGB</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>1 frame</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>AOI</t>
         </is>
       </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-      <c r="I11" t="inlineStr">
+      <c r="I11" t="n">
+        <v>11</v>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>custom: on-road</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>accuracy, confusion matrix</t>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>accuracy</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2011_T-ITS_Lee</t>
+          <t>https://doi.org/10.1109/BIGCOMP.2016.7425813</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Real-Time Gaze Estimator Based on Driver’s Head Orientation for Forward Collision Warning System</t>
+          <t>2016_BigComp_Choi</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>T-ITS</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E12" t="inlineStr">
+          <t>Real-time categorization of driver’s gaze zone using the deep learning techniques</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>International Conference on Big Data and Smart Computing</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2016</v>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>RGB</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>1 frame</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>AOI</t>
         </is>
       </c>
-      <c r="H12" t="n">
-        <v>18</v>
-      </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>8+EC</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>custom: on-road</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>SCER, LCER</t>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>accuracy</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1109/TITS.2015.2396031</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>2015_T-ITS_Vicente</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Driver Gaze Tracking and Eyes Off the Road Detection System</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>T-ITS</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>2015</v>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>RGB</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>1 frame</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>AOI</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>18</v>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>custom: on-road</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>accuracy, FP</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/IVS.2014.6856607</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2014_IV_Tawari</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Robust and Continuous Estimation of Driver Gaze Zone by Dynamic Analysis of Multiple Face Videos</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>2014</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>RGB</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>6s</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>AOI</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>8</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>custom: on-road</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>accuracy, confusion matrix</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/ITSC.2014.6957817</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2014_ITSC_Tawari</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Where is the driver looking: Analysis of Head, Eye and Iris for Robust Gaze Zone Estimation</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ITSC</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2014</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>RGB</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1 frame</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>AOI</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>6</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>custom: on-road</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>accuracy, confusion matrix</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/TITS.2010.2091503</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2011_T-ITS_Lee</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Real-Time Gaze Estimator Based on Driver’s Head Orientation for Forward Collision Warning System</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>T-ITS</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>2011</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>RGB</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1 frame</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>AOI</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>18</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>custom: on-road</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>SCER, LCER</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2249,1692 +2608,1707 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Reference link</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Reference</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Title</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Venue</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Inattention type</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Input</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Output</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Dataset</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Metrics</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Features</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Pipeline</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019_TMC_Fan</t>
+          <t>https://doi.org/10.1109/ITSC45102.2020.9294686</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GazMon: Eye Gazing Enabled Driving Behavior Monitoring and Prediction</t>
+          <t>2020_ITSC_Dari</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>IEEE Transactions on Mobile Computing</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>VD, VMD, CD</t>
-        </is>
+          <t>Unsupervised Blink Detection and Driver Drowsiness Metrics on Naturalistic Driving Data</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ITSC</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>2020</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1-5s</t>
+          <t>DR</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>RGB</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>distraction type (1-8s into future, normal, using phone reaching, eating)</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>custom: on-road, sim</t>
+          <t>blink</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>precision, recall, F-score, accuracy</t>
+          <t>custom: on-road</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Facial landmarks, head pose, iris center</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>FE → LSTM</t>
+          <t>TP, FP, FN, TN, P, R, F1, detection rate</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2019_T-ITS_Chiou</t>
+          <t>https://doi.org/10.1109/TMC.2019.2962764</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Driver Monitoring Using Sparse Representation With Part-Based Temporal Face Descriptors</t>
+          <t>2019_TMC_Fan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>T-ITS</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+          <t>GazMon: Eye Gazing Enabled Driving Behavior Monitoring and Prediction</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>IEEE Transactions on Mobile Computing</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>2019</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>VD, VMD, CD, DR</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1, 2, 4, 8, 16 frames</t>
+          <t>VD, VMD, CD</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>1-5s</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>RGB</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>driver status, distraction type</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>custom: on-road, YawDD, DDD</t>
+          <t>distraction type (1-8s into future, normal, using phone reaching, eating)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>specificity, sensitivity, accuracy, f-score.</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Feature extraction, TD</t>
+          <t>custom: on-road, sim</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>precision, recall, F-score, accuracy</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2019_IEEEAccess_Zhang</t>
+          <t>https://doi.org/10.1109/TITS.2019.2892155</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Driver Drowsiness Detection using Multi-Channel Second Order Blind Identifications</t>
+          <t>2019_T-ITS_Chiou</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>IEEE Access</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+          <t>Driver Monitoring Using Sparse Representation With Part-Based Temporal Face Descriptors</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>T-ITS</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>2019</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>DR</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10s</t>
+          <t>VD, VMD, CD, DR</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>RGB, PS</t>
+          <t>1, 2, 4, 8, 16 frames</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>driver status</t>
+          <t>RGB</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>custom: on-road</t>
+          <t>driver status, distraction type</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>custom: on-road, YawDD, DDD</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>specificity, sensitivity, accuracy, f-score.</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Feature extraction, TD</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2019_IEEEAccess_Deng</t>
+          <t>https://doi.org/10.1109/ACCESS.2019.2891971</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Real-Time Driver-Drowsiness Detection System Using Facial Features</t>
+          <t>2019_IEEEAccess_Zhang</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>Driver Drowsiness Detection using Multi-Channel Second Order Blind Identifications</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>IEEE Access</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>2019</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>DR</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>60s</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>RGB</t>
+          <t>10s</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>RGB, PS</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>driver status</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>custom: on-road</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>precision, accuracy</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Feature extraction, CNN, TD</t>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>specificity, sensitivity, accuracy, f-score.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2018_T-ITS_Yu</t>
+          <t>https://doi.org/10.1109/ACCESS.2019.2936663</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Driver Drowsiness Detection Using Condition-Adaptive Representation Learning Framework</t>
+          <t>2019_IEEEAccess_Deng</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>T-ITS</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E6" t="inlineStr">
+          <t>Real-Time Driver-Drowsiness Detection System Using Facial Features</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>IEEE Access</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>DR</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5 frames</t>
-        </is>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>NIR</t>
+          <t>60s</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>RGB</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>driver status</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>DDD</t>
-        </is>
-      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>ROC, precision, detection rate, F-score</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>CNN</t>
+          <t>custom: on-road</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>precision, accuracy</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2018_IROS_Wang</t>
+          <t>https://doi.org/10.1109/TITS.2018.2883823</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Real-Time Workload Classification during Driving using HyperNetworks</t>
+          <t>2018_T-ITS_Yu</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>IROS</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+          <t>Driver Drowsiness Detection Using Condition-Adaptive Representation Learning Framework</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>T-ITS</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>2018</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5, 10, 15s</t>
+          <t>DR</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>GC</t>
+          <t>5 frames</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>NIR</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>driver status</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>custom: sim</t>
-        </is>
-      </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>F-score, Precision, Recall</t>
+          <t>DDD</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>augmented eye-tracking features</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>LSTM</t>
+          <t>ROC, precision, detection rate, F-score</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2017_IET_Zhao</t>
+          <t>https://doi.org/10.1109/IROS.2018.8594305</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Driver drowsiness detection using facial dynamic fusion information and a DBN</t>
+          <t>2018_IROS_Wang</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>IET Intelligent Transport Systems</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>2017</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>DR</t>
-        </is>
+          <t>Real-Time Workload Classification during Driving using HyperNetworks</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>IROS</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2018</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1s</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>RGB</t>
+          <t>5, 10, 15s</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>GC</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>driver status</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>custom: on-road</t>
-        </is>
-      </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Accuracy</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Feature extraction, DBN</t>
+          <t>custom: sim</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>F-score, Precision, Recall</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2017_ACCV_Weng</t>
+          <t>https://doi.org/10.1049/iet-its.2017.0183</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Driver Drowsiness Detection via a Hierarchical Temporal Deep Belief Network</t>
+          <t>2017_IET_Zhao</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ACCV</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
+          <t>Driver drowsiness detection using facial dynamic fusion information and a DBN</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>IET Intelligent Transport Systems</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>2017</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>DR</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>300 frames</t>
-        </is>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>NIR</t>
+          <t>1s</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>RGB</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>driver status</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>DDD</t>
-        </is>
-      </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>F-score, Accuracy</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Feature extraction, DBN</t>
+          <t>custom: on-road</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2017_ACCV_Shih</t>
+          <t>https://doi.org/10.1007/978-3-319-54526-4_9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MSTN: Multistage Spatial-Temporal Network for Driver Drowsiness Detection</t>
+          <t>2017_ACCV_Weng</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>Driver Drowsiness Detection via a Hierarchical Temporal Deep Belief Network</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>ACCV</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>2017</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>DR</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>50 frames</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>300 frames</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>NIR</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>driver status</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>DDD</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>F-score, Accuracy</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Feature extraction, CNN, LSTM</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2016_TransRes_Munoz</t>
+          <t>https://doi.org/10.1007/978-3-319-54526-4_11</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Distinguishing patterns in drivers’ visual attention allocation using Hidden Markov Models</t>
+          <t>2017_ACCV_Shih</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Transportation Research Part F</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>VMD, CD</t>
-        </is>
+          <t>MSTN: Multistage Spatial-Temporal Network for Driver Drowsiness Detection</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ACCV</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2017</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>DR</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>glance location and duration</t>
+          <t>50 frames</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>NIR</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>driver status</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>custom: on-road</t>
-        </is>
-      </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>average accuracy</t>
+          <t>DDD</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>F-score, Accuracy</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2016_T-ITS_Liao</t>
+          <t>https://doi.org/10.1016/j.trf.2016.09.015</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Detection of Driver Cognitive Distraction: A Comparison Study of Stop-Controlled Intersection and Speed-Limited Highway</t>
+          <t>2016_TransRes_Munoz</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>T-ITS</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
+          <t>Distinguishing patterns in drivers’ visual attention allocation using Hidden Markov Models</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Transportation Research Part F</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
         <v>2016</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>VMD, CD</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>EV, GC</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>glance location and duration</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>driver status</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>custom: sim</t>
-        </is>
-      </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>DR, F1</t>
+          <t>custom: on-road</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>fixation duration, saccade frequency, pupil diameter, statistical features</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>SVM</t>
+          <t>average accuracy</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2016_T-ITS_Li</t>
+          <t>https://doi.org/10.1109/TITS.2015.2506602</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Detecting Drivers’ Mirror-Checking Actions and Its Application to Maneuver and Secondary Task Recognition</t>
+          <t>2016_T-ITS_Liao</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>Detection of Driver Cognitive Distraction: A Comparison Study of Stop-Controlled Intersection and Speed-Limited Highway</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>T-ITS</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>2016</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>VD, VMD, CD</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2, 5s</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>RGB*, EV</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>distraction type (radio, GPS-following, Phone, picture, conversation)</t>
+          <t>EV, GC</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>custom: on-road</t>
+          <t>driver status</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>F1</t>
+          <t>custom: sim</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Head pose, face action units, glance locations (eyes off road), blink frequency</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>FE → RB</t>
+          <t>DR, F1</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2016_IV_Liao</t>
+          <t>https://doi.org/10.1109/TITS.2015.2493451</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Detection of Driver Cognitive Distraction: A Comparison Study of Stop-Controlled Intersection and Speed-Limited Highway</t>
+          <t>2016_T-ITS_Li</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>IV</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
+          <t>Detecting Drivers’ Mirror-Checking Actions and Its Application to Maneuver and Secondary Task Recognition</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>T-ITS</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
         <v>2016</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2s, 5s</t>
+          <t>VD, VMD, CD</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>EV, GC, HP</t>
+          <t>2, 5s</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>driver status</t>
+          <t>RGB*, EV</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>custom: sim</t>
+          <t>distraction type (radio, GPS-following, Phone, picture, conversation)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>DR, F1</t>
+          <t>custom: on-road</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>statistical features</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>SVM</t>
+          <t>F1</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2016_HumanFactors_Zhang</t>
+          <t>https://doi.org/10.1109/IVS.2016.7535416</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Evaluation of Strategies for Integrated Classification of Visual-Manual and Cognitive Distractions in Driving</t>
+          <t>2016_IV_Liao</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Human Factors</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
+          <t>Detection of Driver Cognitive Distraction: A Comparison Study of Stop-Controlled Intersection and Speed-Limited Highway</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
         <v>2016</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>VMD, CD</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>gaze attributes, driving performance, SA measures</t>
+          <t>2s, 5s</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>EV, GC, HP</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>driver status</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>custom: sim</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>accuracy, FP</t>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>DR, F1</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2016_ApplSci_Choi</t>
+          <t>https://doi.org/10.1177%2F0018720816647607</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Tracking a Driver’s Face against Extreme Head Poses and Inference of Drowsiness Using a Hidden Markov Model</t>
+          <t>2016_HumanFactors_Zhang</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Applied Sciences</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
+          <t>Evaluation of Strategies for Integrated Classification of Visual-Manual and Cognitive Distractions in Driving</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Human Factors</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
         <v>2016</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>DR</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>15 frames</t>
+          <t>VMD, CD</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>RGB</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
+          <t>gaze attributes, driving performance, SA measures</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>driver status</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>custom: on-road</t>
-        </is>
-      </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>qualitative</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Feature extraction, HMM</t>
+          <t>custom: sim</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>accuracy, FP</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2016_AccidentAnalysis_Wang</t>
+          <t>https://doi.org/10.3390/app6050137</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Driver drowsiness detection based on non-intrusive metrics considering individual specifics</t>
+          <t>2016_ApplSci_Choi</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Accident Analysis and Prevention</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
+          <t>Tracking a Driver’s Face against Extreme Head Poses and Inference of Drowsiness Using a Hidden Markov Model</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Applied Sciences</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
         <v>2016</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>DR</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>60s</t>
-        </is>
-      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>EV, BL, EC</t>
+          <t>15 frames</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
+          <t>RGB</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>driver status</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>custom: sim</t>
-        </is>
-      </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>custom: on-road</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>blink frequency, blink duration, PERCLOS, pupil</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>LR, MLP</t>
+          <t>qualitative</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2015_T-ITS_Liu</t>
+          <t>https://doi.org/10.1016/j.aap.2015.09.002</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Driver Distraction Detection Using Semi-Supervised Machine Learning</t>
+          <t>2016_AccidentAnalysis_Wang</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>T-ITS</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>2015</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
+          <t>Driver drowsiness detection based on non-intrusive metrics considering individual specifics</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Accident Analysis and Prevention</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>2016</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>10s</t>
+          <t>DR</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>HP, GC</t>
+          <t>60s</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
+          <t>EV, BL, EC</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>driver status</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>custom: on-road</t>
-        </is>
-      </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>specificity, sensitivity, accuracy, f-score.</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>SVM</t>
+          <t>custom: sim</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>accuracy</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2015_T-ITS_Li</t>
+          <t>https://doi.org/10.1109/TITS.2015.2496157</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Predicting Perceived Visual and Cognitive Distractions of Drivers With Multimodal Features</t>
+          <t>2015_T-ITS_Liu</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>Driver Distraction Detection Using Semi-Supervised Machine Learning</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>T-ITS</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>2015</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>VD, VMD, CD</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>10s</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>RGB, EV</t>
-        </is>
-      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>distraction type</t>
+          <t>HP, GC</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
+          <t>driver status</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
           <t>custom: on-road</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>precision, recall, F</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Feature extraction, BC</t>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>specificity, sensitivity, accuracy, f-score.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2013_T-ITS_Mbouna</t>
+          <t>https://doi.org/10.1109/TITS.2014.2324414</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Visual Analysis of Eye State and Head Pose for Driver Alertness Monitoring</t>
+          <t>2015_T-ITS_Li</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>Predicting Perceived Visual and Cognitive Distractions of Drivers With Multimodal Features</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>T-ITS</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>2013</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>D, DR</t>
-        </is>
+      <c r="E20" t="n">
+        <v>2015</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>120 frames</t>
+          <t>VD, VMD, CD</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>RGB</t>
+          <t>10s</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>driver status</t>
+          <t>RGB, EV</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
+          <t>distraction type</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
           <t>custom: on-road</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>TP, FP, FN, TN</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Feature extraction, SVM</t>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>precision, recall, F</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2013_IJVT_Sigari</t>
+          <t>https://doi.org/10.1109/TITS.2013.2262098</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>A Driver Face Monitoring System for Fatigue andDistraction Detection</t>
+          <t>2013_T-ITS_Mbouna</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>International Journal of Vehicular Technology</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
+          <t>Visual Analysis of Eye State and Head Pose for Driver Alertness Monitoring</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>T-ITS</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
         <v>2013</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1 frame</t>
+          <t>D, DR</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
+          <t>120 frames</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
           <t>RGB</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>driver status</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>custom: sim, on-road</t>
-        </is>
-      </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>FPR, FNR, precision</t>
+          <t>custom: on-road</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>TP, FP, FN, TN</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2013_AdvMechEng_Jin</t>
+          <t>http://dx.doi.org/10.1155/2013/263983</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Driver Sleepiness Detection System Based onEye Movements Variables</t>
+          <t>2013_IJVT_Sigari</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Advances in Mechanical Engineering</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
+          <t>A Driver Face Monitoring System for Fatigue andDistraction Detection</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>International Journal of Vehicular Technology</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
         <v>2013</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>DR</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>10s</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>EC, GC</t>
+          <t>1 frame</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
+          <t>RGB</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>driver status</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>custom: sim</t>
-        </is>
-      </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Accuracy</t>
+          <t>custom: sim, on-road</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>PERCLOS, gaze direction, fixation time</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>SVM</t>
+          <t>FPR, FNR, precision</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2012_T-ITS_Jimenez</t>
+          <t>http://dx.doi.org/10.1155/2013/648431</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Gaze Fixation System for the Evaluation of Driver Distractions Induced by IVIS</t>
+          <t>2013_AdvMechEng_Jin</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>T-ITS</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>2012</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>VMD, CD</t>
-        </is>
+          <t>Driver Sleepiness Detection System Based onEye Movements Variables</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Advances in Mechanical Engineering</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>2013</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1 frame</t>
+          <t>DR</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>NIR</t>
+          <t>10s</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
+          <t>EC, GC</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>driver status</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>custom: sim</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>qualitative</t>
-        </is>
-      </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>facial landmarks, head pos</t>
+          <t>Accuracy</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2012_ITSC_Hirayama</t>
+          <t>https://doi.org/10.1109/TITS.2012.2187517</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Detection of Driver Distraction based on Temporal Relationshipbetween Eye-Gaze and Peripheral Vehicle Behavior</t>
+          <t>2012_T-ITS_Jimenez</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ITSC</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
+          <t>Gaze Fixation System for the Evaluation of Driver Distractions Induced by IVIS</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>T-ITS</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
         <v>2012</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>10s</t>
+          <t>VMD, CD</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>GL</t>
+          <t>1 frame</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
+          <t>NIR</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>driver status</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>custom: on-road</t>
-        </is>
-      </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>BC</t>
+          <t>custom: sim</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>qualitative</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2012_HumanFactors_Liang</t>
+          <t>https://doi.org/10.1109/ITSC.2012.6338634</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>How Dangerous Is Looking Away From the Road? Algorithms Predict Crash Risk From Glance Patterns in Naturalistic Driving</t>
+          <t>2012_ITSC_Hirayama</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Human Factors</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
+          <t>Detection of Driver Distraction based on Temporal Relationshipbetween Eye-Gaze and Peripheral Vehicle Behavior</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ITSC</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
         <v>2012</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3,6,12,24s</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
+          <t>10s</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
           <t>GL</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>driver status</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>100-car NDS</t>
-        </is>
-      </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>correlation</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>LR</t>
+          <t>custom: on-road</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>accuracy</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2011_T-ITS_Wollmer</t>
+          <t>https://doi.org/10.1177%2F0018720812446965</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Online Driver Distraction Detection UsingLong Short-Term Memory</t>
+          <t>2012_HumanFactors_Liang</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>T-ITS</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>VMD</t>
-        </is>
+          <t>How Dangerous Is Looking Away From the Road? Algorithms Predict Crash Risk From Glance Patterns in Naturalistic Driving</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Human Factors</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>2012</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3s</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>EV, HR</t>
+          <t>3,6,12,24s</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
+          <t>GL</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>driver status</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>custom: on-road</t>
-        </is>
-      </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>recall, precision, accuracy, F-score</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>LSTM</t>
+          <t>100-car NDS</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>correlation</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2011_OptEng_Jo</t>
+          <t>https://doi.org/10.1109/TITS.2011.2119483</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Vision-based method for detecting driver drowsiness and distraction in driver monitoring system</t>
+          <t>2011_T-ITS_Wollmer</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Optical Engineering</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
+          <t>Online Driver Distraction Detection UsingLong Short-Term Memory</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>T-ITS</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
         <v>2011</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>D, DR</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>10s</t>
+          <t>VMD</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>NIR</t>
+          <t>3s</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
+          <t>EV, HR</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>driver status</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>custom: on-road</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>FP, FN</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>Feature extraction, TD</t>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>recall, precision, accuracy, F-score</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2011_IET_Flores</t>
+          <t>https://doi.org/10.1117/1.3657506</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Driver drowsiness detection system under infrared illumination for an intelligent vehicle</t>
+          <t>2011_OptEng_Jo</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>IET Intelligent Transport Systems</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
+          <t>Vision-based method for detecting driver drowsiness and distraction in driver monitoring system</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Optical Engineering</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
         <v>2011</v>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>D, DR</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1 frame</t>
-        </is>
-      </c>
       <c r="G28" t="inlineStr">
         <is>
+          <t>10s</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
           <t>NIR</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>driver status</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>custom: on-road</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>correct rate</t>
-        </is>
-      </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>PERCLOS, head pose</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>Feature extraction, TD</t>
+          <t>FP, FN</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2010_JCTA_Zhang</t>
+          <t>https://doi.org/10.1049/iet-its.2009.0090</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>A new real-time eye tracking based on nonlinear unscented Kalman filter for monitoring driver fatigue</t>
+          <t>2011_IET_Flores</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Journal of Control Theory Applications</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>2010</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>DR</t>
-        </is>
+          <t>Driver drowsiness detection system under infrared illumination for an intelligent vehicle</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>IET Intelligent Transport Systems</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>2011</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>6m</t>
+          <t>D, DR</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
+          <t>1 frame</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
           <t>NIR</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>driver status</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>custom: on-road</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>correct rate, average correct</t>
-        </is>
-      </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>PERCLOS</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>Feature extraction, TD</t>
+          <t>correct rate</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1007/s11768-010-8043-0</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2010_JCTA_Zhang</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A new real-time eye tracking based on nonlinear unscented Kalman filter for monitoring driver fatigue</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Journal of Control Theory Applications</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>2010</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>DR</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>6m</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>NIR</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>driver status</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>custom: on-road</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>correct rate, average correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/IVS.2010.5548039</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
           <t>2010_IV_Friedrichs</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>Camera-based Drowsiness Reference for Driver State Classification under Real Driving Conditions</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>IV</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="E31" t="n">
         <v>2010</v>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>DR</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>5 timesteps</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>EC, HP, EV, BL</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>driver status</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>custom: on-road</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>correct rate</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>PERCLOS (3m), microsleeps, head nod, blink frequency (1m), mean eye opening</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>MLP</t>
         </is>
       </c>
     </row>
@@ -3949,7 +4323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3960,50 +4334,55 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Reference link</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Reference</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Title</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Venue</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Code</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Input</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Output</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Dataset</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Metrics</t>
         </is>
@@ -4012,178 +4391,203 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019_T-ITS_Yang</t>
+          <t>https://doi.org/10.1109/IROS45743.2020.9341782</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A Dual-Cameras-Based Driver Gaze Mapping System With an Application on Non-Driving Activities Monitoring</t>
+          <t>2020_IROS_Dua</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>T-ITS</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>2019</v>
+          <t>DGAZE: Driver Gaze Mapping on Road</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>IROS</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>2020</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>RGB (driver and scene)</t>
+          <t>https://github.com/duaisha/DGAZE.git</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>RGB (driver)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>1 frame</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>PoG</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>custom: on-road</t>
-        </is>
-      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>RMSE</t>
+          <t>DGAZE</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>MAE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2019_ACM_Ma</t>
+          <t>https://doi.org/10.1109/TITS.2019.2939676</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GazeFCW: Filter Collision Warning Triggers by Detecting Driver’s Gaze Area</t>
+          <t>2019_T-ITS_Yang</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Workshop on Machine Learning on Edge in Sensor Systems</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+          <t>A Dual-Cameras-Based Driver Gaze Mapping System With an Application on Non-Driving Activities Monitoring</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>T-ITS</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>2019</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>RGB (driver and scene)</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>1 frame</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>warning</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>PoG</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>custom: on-road</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Valid Trigger Proportion, Invalid Trigger Proportion, Missing Trigger.</t>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>RMSE</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2018_ITSC_Schwehr</t>
+          <t>https://doi.org/10.1145/3362743.3362962</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Multi-Hypothesis Multi-Model Driver’s Gaze Target Tracking</t>
+          <t>2019_ACM_Ma</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ITSC</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>GD, RD</t>
-        </is>
+          <t>GazeFCW: Filter Collision Warning Triggers by Detecting Driver’s Gaze Area</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Workshop on Machine Learning on Edge in Sensor Systems</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>2019</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>RGB (driver and scene)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>1 frame</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PoG</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>warning</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>custom: on-road</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Q</t>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Valid Trigger Proportion, Invalid Trigger Proportion, Missing Trigger.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2017_IV_Zabihi</t>
+          <t>https://doi.org/10.1109/ITSC.2018.8569655</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Detection and Recognition of Traffic Signs Inside the Attentional Visual Field of Drivers</t>
+          <t>2018_ITSC_Schwehr</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>IV</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>2017</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>RGB (driver and scene)</t>
-        </is>
+          <t>Multi-Hypothesis Multi-Model Driver’s Gaze Target Tracking</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ITSC</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2018</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>GD, RD</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>1 frame</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>BB, PoG</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>PoG</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>custom: on-road</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
@@ -4192,43 +4596,48 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2017_ITSC_Schwehr</t>
+          <t>https://doi.org/10.1109/IVS.2017.7995781</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Driver’s Gaze Prediction in Dynamic Automotive Scenes</t>
+          <t>2017_IV_Zabihi</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ITSC</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
+          <t>Detection and Recognition of Traffic Signs Inside the Attentional Visual Field of Drivers</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>2017</v>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>GD, RD</t>
-        </is>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>RGB (driver and scene)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>1 frame</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PoG</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>BB, PoG</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>custom: on-road</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
@@ -4237,43 +4646,48 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2016_IV_Roth</t>
+          <t>https://doi.org/10.1109/ITSC.2017.8317586</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Driver and Pedestrian Awareness-based Collision Risk Analysis</t>
+          <t>2017_ITSC_Schwehr</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>IV</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>2016</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>HP (driver, pedestrian), BB, EV</t>
-        </is>
+          <t>Driver’s Gaze Prediction in Dynamic Automotive Scenes</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ITSC</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2017</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>GD, RD</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>1 frame</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>warning</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>PoG</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>custom: on-road</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
@@ -4282,43 +4696,48 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2016_ICRA_Langner</t>
+          <t>https://doi.org/10.1109/IVS.2016.7535425</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Traffic Awareness Driver Assistance based on Stereovision, Eye-tracking, and Head-Up Display</t>
+          <t>2016_IV_Roth</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ICRA</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
+          <t>Driver and Pedestrian Awareness-based Collision Risk Analysis</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>2016</v>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>GD, RGB (scene)</t>
-        </is>
-      </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>HP (driver, pedestrian), BB, EV</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>1 frame</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>warning</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>custom: on-road</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
@@ -4327,178 +4746,198 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2014_IV_Kowsari</t>
+          <t>https://doi.org/10.1109/ICRA.2016.7487485</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Multi-Depth Cross-Calibration of Remote Eye Gaze Trackers and Stereoscopic Scene Systems</t>
+          <t>2016_ICRA_Langner</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>IV</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>2014</v>
-      </c>
-      <c r="F9" t="inlineStr">
+          <t>Traffic Awareness Driver Assistance based on Stereovision, Eye-tracking, and Head-Up Display</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ICRA</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2016</v>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>GD, RGB (scene)</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>1 frame</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PoG</t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>warning</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>custom: on-road</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>angular error, reprojection error</t>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2014_ITSC_Tawari_1</t>
+          <t>https://doi.org/10.1109/IVS.2014.6856450</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Attention Estimation By Simultaneous Analysis of Viewer and View</t>
+          <t>2014_IV_Kowsari</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ITSC</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
+          <t>Multi-Depth Cross-Calibration of Remote Eye Gaze Trackers and Stereoscopic Scene Systems</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>2014</v>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>RGB (driver and scene)</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>GD, RGB (scene)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>1 frame</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PoG, BB</t>
-        </is>
-      </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>PoG</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>custom: on-road</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>DR, FP</t>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>angular error, reprojection error</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2014_CVPR_Rezaei</t>
+          <t>https://doi.org/10.1109/ITSC.2014.6957880</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Look at the Driver, Look at the Road: No Distraction! No Accident!</t>
+          <t>2014_ITSC_Tawari_1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CVPR</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
+          <t>Attention Estimation By Simultaneous Analysis of Viewer and View</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ITSC</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>2014</v>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>RGB (driver and scene)</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>continuous</t>
-        </is>
-      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>risk level, warning</t>
+          <t>1 frame</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>PoG, BB</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>custom: on-road</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Q</t>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>DR, FP</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2013_IV_Bar</t>
+          <t>https://openaccess.thecvf.com/content_cvpr_2014/papers/Rezaei_Look_at_the_2014_CVPR_paper.pdf</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Seen and Missed Traffic Objects: A Traffic Object-Specific Awareness Estimation</t>
+          <t>2014_CVPR_Rezaei</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>IV</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>2013</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>RGB (driver and scene), laser scanner, EV</t>
-        </is>
+          <t>Look at the Driver, Look at the Road: No Distraction! No Accident!</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CVPR</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2014</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1 frame</t>
+          <t>RGB (driver and scene)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>BB + IS, warning</t>
+          <t>continuous</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>risk level, warning</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>custom: on-road</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
@@ -4507,43 +4946,98 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1109/IVS.2013.6629443</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2013_IV_Bar</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Seen and Missed Traffic Objects: A Traffic Object-Specific Awareness Estimation</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2013</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>RGB (driver and scene), laser scanner, EV</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1 frame</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>BB + IS, warning</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>custom: on-road</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/ITSC.2012.6338802</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>2012_ITSC_Mori</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Measuring Driver Awareness Based on Correlation Between Gaze Behavior and Risks of Surrounding Vehicles</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>ITSC</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="E14" t="n">
         <v>2012</v>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>RGB (driver and scene), LS</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>0.4s</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>awareness</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>custom: on-road</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
@@ -4560,7 +5054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4571,50 +5065,55 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Reference link</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Reference</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Title</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Venue</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Code</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Input</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Output</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Dataset</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Metrics</t>
         </is>
@@ -4623,43 +5122,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>https://openaccess.thecvf.com/content_CVPRW_2020/papers/w20/Cultrera_Explaining_Autonomous_Driving_by_Learning_End-to-End_Visual_Attention_CVPRW_2020_paper.pdf</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>2020_CVPRW_Cultrera</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Explaining Autonomous Driving by Learning End-to-End Visual Attention</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>CVPRW</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>2020</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>1 frame</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>RGB from scene-facing camera</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>steering angle</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>Carla</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>success rate, percentage of completed tasks</t>
         </is>
@@ -4668,158 +5172,198 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2019_ICRA_Wang</t>
+          <t>https://doi.org/10.1109/IROS40897.2019.8967843</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Deep Object-Centric Policies for Autonomous Driving</t>
+          <t>2019_IROSW_Yuying</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ICRA</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+          <t>Gaze Training by Modulated Dropout Improves Imitation Learning</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>IROSW</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>2019</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>1 frame</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>steering angle, speed</t>
+          <t>RGB from scene-facing camera</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>BDD</t>
+          <t>steering angle</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>interventions, distance between interventions, number of collisions</t>
+          <t>TORCS</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>distance between infractions</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2019_CVPR_Kim</t>
+          <t>https://doi.org/10.1109/ICRA.2019.8794224</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grounding Human-to-Vehicle Advice for Self-driving Vehicles</t>
+          <t>2019_ICRA_Wang</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CVPR</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+          <t>Deep Object-Centric Policies for Autonomous Driving</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ICRA</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>2019</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>20s</t>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1 frame</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>RGB from scene-facing camera</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>steering angle, speed</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>HAD</t>
-        </is>
-      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>mean of correlation distances, MAE</t>
+          <t>BDD</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>interventions, distance between interventions, number of collisions</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2019_IROSW_Yuying</t>
+          <t>https://openaccess.thecvf.com/content_CVPR_2019/papers/Kim_Grounding_Human-To-Vehicle_Advice_for_Self-Driving_Vehicles_CVPR_2019_paper.pdf</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gaze Training by Modulated Dropout Improves Imitation Learning</t>
+          <t>2019_CVPR_Kim</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>IROSW</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+          <t>Grounding Human-to-Vehicle Advice for Self-driving Vehicles</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CVPR</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>2019</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1 frame</t>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>20s</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>steering angle</t>
+          <t>RGB from scene-facing camera</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>TORCS</t>
+          <t>steering angle, speed</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>distance between infractions</t>
+          <t>HAD</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>mean of correlation distances, MAE</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1145/3314111.3319846</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2019_ACM_Liu</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>A Gaze Model Improves Autonomous Driving</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>ACM Symposium on Eye Tracking Research and Applications</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>2019</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>1 frame</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>RGB from scene-facing camera</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>steering angle</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>TORCS</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>KLDiv, CC, MAE for steering angle</t>
         </is>
@@ -4828,38 +5372,48 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1109/ICPR.2018.8546051</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2018_ICPR_He</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Aggregated Sparse Attention for Steering Angle Prediction</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>ICPR</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>2018</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>1 frame</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>RGB from scene-facing camera</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>steering angle</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>DIPLECS, Comma.ai</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>MAE</t>
         </is>
@@ -4868,43 +5422,53 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>https://openaccess.thecvf.com/content_ECCV_2018/papers/Jinkyu_Kim_Textual_Explanations_for_ECCV_2018_paper.pdf</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2018_ECCV_Kim</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Textual Explanations for Self-Driving Vehicles</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>ECCV</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>2018</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>https://github.com/JinkyuKimUCB/explainable-deep-driving</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>4 frames (0.4s)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>RGB from scene-facing camera</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>steering angle, speed</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>BDD-X</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>MAE, CC</t>
         </is>
@@ -4913,38 +5477,48 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>https://openaccess.thecvf.com/content_ICCV_2017/papers/Kim_Interpretable_Learning_for_ICCV_2017_paper.pdf</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2017_ICCV_Kim</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Interpretable Learning for Self-Driving Cars by Visualizing Causal Attention</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>ICCV</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>2017</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>20 frames (1s)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>RGB from scene-facing camera</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>steering angle</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>Comma.ai, Udacity, custom: on-road</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>MAE</t>
         </is>
@@ -4953,38 +5527,48 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>https://arxiv.org/pdf/1704.07911.pdf</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2017_arXiv_Bojarski</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Explaining How a Deep Neural Network Trained with End-to-End Learning Steers a Car</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>arXiv</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>2017</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>1 frame</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>RGB from scene-facing camera</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>steering angle</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>custom in-vehicle</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>qualitative, inverse R</t>
         </is>
@@ -5001,7 +5585,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5106,17 +5690,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2020_T-ITS_Deng</t>
+          <t>2020_T-ITS_Lee</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>lane change</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -5146,24 +5730,24 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>monitoring</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2020_T-ITS_Lee</t>
+          <t>2020_T-ITS_Deng</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>lane change</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -5193,14 +5777,14 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2020_IEEEAccess_MartinezCebrian</t>
+          <t>2020_ITSC_Dari</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -5230,12 +5814,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>drowsiness</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>road type, weather, visibility</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -5247,12 +5831,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2020_CVPRW_Cultrera</t>
+          <t>2020_IROS_Dua</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -5282,24 +5866,24 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>lighting</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>lateral control, explainability</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2020_CVPR_Pal</t>
+          <t>2020_IEEEAccess_MartinezCebrian</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -5329,7 +5913,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>road type, weather, visibility</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -5341,12 +5925,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2020_arXiv_Zhang</t>
+          <t>2020_ICMI_Stappen</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -5376,7 +5960,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>lighting</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -5388,7 +5972,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2020_AccidentAnalysis_Du</t>
+          <t>2020_HumanFactors_Jokinen</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -5398,12 +5982,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>take over control</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>N-back task: cognitive-visual-manual</t>
+          <t>IVIS: visual-manual</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -5428,14 +6012,14 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>monitoring, TOR</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2019_WACV_Tavakoli</t>
+          <t>2020_CVPRW_Cultrera</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -5475,14 +6059,14 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>lateral control, explainability</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2019_TMC_Fan</t>
+          <t>2020_CVPR_Pal</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -5497,7 +6081,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Cell phone dialing: visual-manual, text entry: visual-manual, text reading: visual, drinking/eating: visual-manual</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -5512,7 +6096,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>distraction</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -5522,19 +6106,19 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>monitoring, warning/guidance</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2019_T-ITS_Yang</t>
+          <t>2020_arXiv_Zhang</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -5544,7 +6128,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">watching video: visual, reading book: visual-manual, cell phone gaming: visual-manual </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -5559,7 +6143,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>distraction</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -5569,29 +6153,29 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2019_T-ITS_Chiou</t>
+          <t>2020_AccidentAnalysis_Du</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>take over control</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>cell phone using: visual-manual, conversation: cognitive, drinking/eating: visual-manual</t>
+          <t>N-back task: cognitive-visual-manual</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -5606,7 +6190,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>distraction, drowsiness</t>
+          <t>distraction</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -5616,14 +6200,14 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>monitoring, TOR</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2019_IV_Rahimpour</t>
+          <t>2019_WACV_Tavakoli</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -5658,19 +6242,19 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>intersection</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>lateral control</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2019_IV_Akai</t>
+          <t>2019_TMC_Fan</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -5685,7 +6269,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Cell phone dialing: visual-manual, text entry: visual-manual, text reading: visual, drinking/eating: visual-manual</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -5700,7 +6284,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>distraction</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -5710,19 +6294,19 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>monitoring, warning/guidance</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2019_ITSC_Ning</t>
+          <t>2019_T-ITS_Yang</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -5732,7 +6316,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t xml:space="preserve">watching video: visual, reading book: visual-manual, cell phone gaming: visual-manual </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -5747,7 +6331,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>distraction</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -5757,19 +6341,19 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>monitoring</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2019_ITSC_Mori</t>
+          <t>2019_T-ITS_Chiou</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -5779,7 +6363,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>cell phone using: visual-manual, conversation: cognitive, drinking/eating: visual-manual</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -5794,7 +6378,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>distraction, drowsiness</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -5804,19 +6388,19 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>warning/guidance</t>
+          <t>monitoring</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2019_IEEEAccess_Zhang</t>
+          <t>2019_IV_Rahimpour</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -5841,29 +6425,29 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>drowsiness</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>intersection</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>lateral control</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2019_IEEEAccess_Deng</t>
+          <t>2019_IV_Akai</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -5888,12 +6472,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>drowsiness</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>lighting</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -5905,7 +6489,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2019_ICRA_Wang</t>
+          <t>2019_ITSC_Ning</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -5945,14 +6529,14 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>lateral control, longitudinal control, explainability</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2019_ICRA_Gao</t>
+          <t>2019_ITSC_Mori</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -5992,19 +6576,19 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>lateral control, longitudinal control</t>
+          <t>warning/guidance</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2019_CVPR_Kim</t>
+          <t>2019_IEEEAccess_Zhang</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -6029,7 +6613,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>drowsiness</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -6039,19 +6623,19 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>lateral control, warning/guidance</t>
+          <t>monitoring</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2019_BMVC_Palasek</t>
+          <t>2019_IEEEAccess_Deng</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -6076,24 +6660,24 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>drowsiness</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>traffic</t>
+          <t>lighting</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>monitoring</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2019_arXiv_Yuying</t>
+          <t>2019_ICRA_Wang</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -6133,14 +6717,14 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>lateral control</t>
+          <t>lateral control, longitudinal control, explainability</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2019_arXiv_Xia</t>
+          <t>2019_ICRA_Gao</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -6148,7 +6732,11 @@
           <t>+</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
           <t>-</t>
@@ -6176,14 +6764,14 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>longitudinal control</t>
+          <t>lateral control, longitudinal control</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2019_arXiv_Baee</t>
+          <t>2019_CVPR_Kim</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -6193,7 +6781,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>hazard anticipation</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -6203,7 +6791,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>duration</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -6213,7 +6801,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>distraction</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -6223,24 +6811,24 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>monitoring, warning/guidance</t>
+          <t>lateral control, warning/guidance</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2019_ACM_Ma</t>
+          <t>2019_BMVC_Palasek</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>hazard anticipation</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -6265,19 +6853,19 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>traffic</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>monitoring, warning/guidance</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2019_ACM_Liu</t>
+          <t>2019_arXiv_Yuying</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -6324,19 +6912,15 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2018_TIV_Vora</t>
+          <t>2019_arXiv_Xia</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
           <t>-</t>
@@ -6364,14 +6948,14 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>longitudinal control</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2018_TIV_Martin</t>
+          <t>2019_arXiv_Baee</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6381,7 +6965,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>hazard anticipation</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -6391,7 +6975,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>duration</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -6401,7 +6985,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>distraction</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -6411,14 +6995,14 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>monitoring, warning/guidance</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2018_T-ITS_Yu</t>
+          <t>2019_ACM_Ma</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6428,7 +7012,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>hazard anticipation</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -6448,29 +7032,29 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>drowsiness</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>lighting</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>monitoring, warning/guidance</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2018_T-ITS_Deng</t>
+          <t>2019_ACM_Liu</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -6505,19 +7089,19 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>lateral control</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2018_PAMI_Palazzi</t>
+          <t>2018_TIV_Vora</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -6552,14 +7136,14 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>monitoring</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2018_ITSC_Tawari</t>
+          <t>2018_TIV_Martin</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6599,14 +7183,14 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>monitoring</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2018_ITSC_Schwehr</t>
+          <t>2018_T-ITS_Yu</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -6636,12 +7220,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>drowsiness</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>traffic</t>
+          <t>lighting</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -6653,12 +7237,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2018_ITSC_Mund</t>
+          <t>2018_T-ITS_Deng</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -6693,19 +7277,19 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>lateral control, explainability</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2018_ITSC_Jha</t>
+          <t>2018_PAMI_Palazzi</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -6740,14 +7324,14 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2018_IROS_Wang</t>
+          <t>2018_ITSC_Tawari</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -6762,7 +7346,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>N-back task: visual</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -6777,7 +7361,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>distraction</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -6787,19 +7371,19 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2018_ICPR_He</t>
+          <t>2018_ITSC_Schwehr</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -6829,19 +7413,19 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>traffic</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>lateral control</t>
+          <t>monitoring</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2018_ECCV_Kim</t>
+          <t>2018_ITSC_Mund</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -6888,12 +7472,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2018_ACCV_Xia</t>
+          <t>2018_ITSC_Jha</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -6928,19 +7512,19 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>monitoring</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2017_WACV_Palmer</t>
+          <t>2018_IROS_Wang</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -6950,7 +7534,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N-back task: visual</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -6965,24 +7549,24 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>distraction</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>traffic, road type</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>monitoring</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2017_PR_Ohn-Bar</t>
+          <t>2018_ICPR_He</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -7022,19 +7606,19 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>lateral control</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2017_IV_Zabihi</t>
+          <t>2018_ECCV_Kim</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -7064,24 +7648,24 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>sign</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>monitoring, warning/guidance</t>
+          <t>lateral control, explainability</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2017_IV_Vora</t>
+          <t>2018_ACCV_Xia</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -7116,19 +7700,19 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2017_IV_Tawari</t>
+          <t>2017_WACV_Palmer</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -7158,7 +7742,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>traffic, road type</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -7170,7 +7754,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2017_IV_Palazzi</t>
+          <t>2017_PR_Ohn-Bar</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -7217,17 +7801,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2017_IV_Martin</t>
+          <t>2017_IV_Zabihi</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>lane change, maintain lane</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -7252,19 +7836,19 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>sign</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>monitoring, warning/guidance</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2017_ITSC_Schwehr</t>
+          <t>2017_IV_Vora</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -7299,7 +7883,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>road users</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -7311,12 +7895,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2017_IET_Zhao</t>
+          <t>2017_IV_Tawari</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -7341,7 +7925,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>drowsiness</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -7351,14 +7935,14 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2017_ICCV_Kim</t>
+          <t>2017_IV_Palazzi</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -7398,14 +7982,14 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>lateral control, explainability</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2017_CHI_Fridman</t>
+          <t>2017_IV_Martin</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -7415,12 +7999,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>lane change, maintain lane</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>conversation: cognitive, IVIS: visual-manual</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -7430,17 +8014,17 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>age, gender</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>distraction, drowsiness</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>traffic, road type, lighting, weather</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -7452,12 +8036,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2017_arXiv_Bojarski</t>
+          <t>2017_ITSC_Schwehr</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -7487,19 +8071,19 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>road users</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>lateral control, explainability</t>
+          <t>monitoring</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2017_ACCV_Weng</t>
+          <t>2017_IET_Zhao</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -7534,7 +8118,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>lighting</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -7546,12 +8130,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2017_ACCV_Shih</t>
+          <t>2017_ICCV_Kim</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -7576,29 +8160,29 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>drowsiness</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>lighting</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>lateral control, explainability</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2016_TransRes_Munoz</t>
+          <t>2017_CHI_Fridman</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -7608,7 +8192,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>IVIS: visual-manual, listening to music: cognitive</t>
+          <t>conversation: cognitive, IVIS: visual-manual</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -7618,17 +8202,17 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>age, gender</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>distraction</t>
+          <t>distraction, drowsiness</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>traffic, road type, lighting, weather</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -7640,12 +8224,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2016_T-ITS_Lundgren</t>
+          <t>2017_arXiv_Bojarski</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -7680,19 +8264,19 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>lateral control, explainability</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2016_T-ITS_Liao</t>
+          <t>2017_ACCV_Weng</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -7702,7 +8286,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>clock task: cognitive</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -7717,12 +8301,12 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>distraction</t>
+          <t>drowsiness</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>road type, intersection</t>
+          <t>lighting</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -7734,12 +8318,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2016_T-ITS_Li</t>
+          <t>2017_ACCV_Shih</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -7749,7 +8333,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>conversation: cognitive, IVIS: visual-manual, cell phone: visual-manual</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -7764,12 +8348,12 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>distraction</t>
+          <t>drowsiness</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>lighting</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -7781,12 +8365,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2016_T-ITS_Deng</t>
+          <t>2016_TransRes_Munoz</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -7796,7 +8380,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>IVIS: visual-manual, listening to music: cognitive</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -7811,7 +8395,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>distraction</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -7821,24 +8405,24 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>monitoring</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2016_IV_Roth</t>
+          <t>2016_T-ITS_Lundgren</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>hazard anticipation</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -7863,19 +8447,19 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>road users</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>monitoring, warning/guidance</t>
+          <t>monitoring</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2016_IV_Liao</t>
+          <t>2016_T-ITS_Liao</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -7922,12 +8506,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2016_ITSC_Vasli</t>
+          <t>2016_T-ITS_Li</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -7937,7 +8521,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>conversation: cognitive, IVIS: visual-manual, cell phone: visual-manual</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -7952,7 +8536,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>distraction</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -7969,12 +8553,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2016_IS_Fridman</t>
+          <t>2016_T-ITS_Deng</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -8009,24 +8593,24 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2016_IET_Fridman</t>
+          <t>2016_IV_Roth</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>hazard anticipation</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -8051,24 +8635,24 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>road users</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>monitoring, warning/guidance</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2016_ICRA_Langner</t>
+          <t>2016_IV_Liao</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -8078,7 +8662,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>clock task: cognitive</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -8093,29 +8677,29 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>distraction</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>road users</t>
+          <t>road type, intersection</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>monitoring, warning/guidance</t>
+          <t>monitoring</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2016_ICRA_Jain</t>
+          <t>2016_ITSC_Vasli</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -8157,22 +8741,22 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2016_HumanFactors_Zhang</t>
+          <t>2016_IS_Fridman</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>vehicle following, lane change</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>arrow task: visual-manual, navigation: cognitive</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -8187,7 +8771,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>distraction</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -8204,7 +8788,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2016_BigComp_Choi</t>
+          <t>2016_IET_Fridman</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -8251,12 +8835,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2016_arXiv_Bojarski_1</t>
+          <t>2016_ICRA_Langner</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -8286,24 +8870,24 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>road users</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>lateral control, explainability</t>
+          <t>monitoring, warning/guidance</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2016_ApplSci_Choi</t>
+          <t>2016_ICRA_Jain</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -8328,7 +8912,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>drowsiness</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -8345,7 +8929,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2016_AccidentAnalysis_Wang</t>
+          <t>2016_HumanFactors_Zhang</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -8355,12 +8939,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>vehicle following, lane change</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>arrow task: visual-manual, navigation: cognitive</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -8375,10 +8959,14 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>drowsiness</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr"/>
+          <t>distraction</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="I72" t="inlineStr">
         <is>
           <t>monitoring</t>
@@ -8388,12 +8976,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2015_TranVehTech_Pugeault</t>
+          <t>2016_BigComp_Choi</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -8428,19 +9016,19 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>lateral control, explainability</t>
+          <t>monitoring</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2015_T-ITS_Vicente</t>
+          <t>2016_arXiv_Bojarski_1</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -8465,7 +9053,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>distraction</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -8475,14 +9063,14 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>lateral control, explainability</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2015_T-ITS_Liu</t>
+          <t>2016_ApplSci_Choi</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -8492,12 +9080,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>vehicle following</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>cognitive tone task: cognitive</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -8512,7 +9100,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>distraction</t>
+          <t>drowsiness</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -8529,7 +9117,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2015_T-ITS_Li</t>
+          <t>2016_AccidentAnalysis_Wang</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -8544,7 +9132,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>conversation: cognitive, IVIS: visual-manual, cell phone: visual-manual</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -8559,14 +9147,10 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>distraction</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>drowsiness</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
           <t>monitoring</t>
@@ -8576,7 +9160,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2015_ICCV_Jain</t>
+          <t>2015_TranVehTech_Pugeault</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -8616,19 +9200,19 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>lateral control, explainability</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2014_TransSysManCybernetics_Borji</t>
+          <t>2015_T-ITS_Vicente</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -8653,7 +9237,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>distraction</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -8663,14 +9247,14 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>monitoring</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2014_IV_Tawari</t>
+          <t>2015_T-ITS_Liu</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -8680,12 +9264,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>vehicle following</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>cognitive tone task: cognitive</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -8700,7 +9284,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>distraction</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -8717,12 +9301,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2014_IV_Kowsari</t>
+          <t>2015_T-ITS_Li</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -8732,7 +9316,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>conversation: cognitive, IVIS: visual-manual, cell phone: visual-manual</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -8747,7 +9331,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>distraction</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -8764,12 +9348,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2014_ITSC_Tawari_1</t>
+          <t>2015_ICCV_Jain</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -8811,12 +9395,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2014_ITSC_Tawari</t>
+          <t>2014_TransSysManCybernetics_Borji</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -8851,14 +9435,14 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2014_ITSC_Pech</t>
+          <t>2014_IV_Tawari</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -8905,7 +9489,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2014_CVPR_Rezaei</t>
+          <t>2014_IV_Kowsari</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -8935,7 +9519,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>distraction</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -8945,29 +9529,29 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>monitoring, warning/guidance</t>
+          <t>monitoring</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2013_TR_Wortelen</t>
+          <t>2014_ITSC_Tawari_1</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>maintain lane, maintain speed</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>number read back task: visual</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -8982,7 +9566,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>distraction</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -8992,14 +9576,14 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>monitoring</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2013_T-ITS_Mbouna</t>
+          <t>2014_ITSC_Tawari</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -9029,7 +9613,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>drowsiness</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -9046,17 +9630,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2013_RSTB_Johnson</t>
+          <t>2014_ITSC_Pech</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>maintain lane, maintain speed</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -9086,19 +9670,19 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>monitoring</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2013_IV_Bar</t>
+          <t>2014_CVPR_Rezaei</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -9123,7 +9707,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>distraction</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -9140,22 +9724,22 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2013_IJVT_Sigari</t>
+          <t>2013_TR_Wortelen</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>maintain lane, maintain speed</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>number read back task: visual</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -9170,7 +9754,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>distraction, drowsiness</t>
+          <t>distraction</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -9180,14 +9764,14 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2013_AdvMechEng_Jin</t>
+          <t>2013_T-ITS_Mbouna</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -9234,22 +9818,22 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2012_T-ITS_Jimenez</t>
+          <t>2013_RSTB_Johnson</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>hazard anticipation</t>
+          <t>maintain lane, maintain speed</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>IVIS: visual-manual, conversation: cognitive</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -9264,24 +9848,24 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>distraction</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>road type</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2012_ITSC_Mori</t>
+          <t>2013_IV_Bar</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -9291,7 +9875,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>lane change</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -9301,7 +9885,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>duration</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -9316,24 +9900,24 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>traffic</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>monitoring, warning/guidance</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2012_ITSC_Hirayama</t>
+          <t>2013_IJVT_Sigari</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -9343,7 +9927,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>search task: visual-manual</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -9358,12 +9942,12 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>distraction</t>
+          <t>distraction, drowsiness</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>traffic</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -9375,12 +9959,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2012_HumanFactors_Liang</t>
+          <t>2013_AdvMechEng_Jin</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -9405,7 +9989,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>distraction</t>
+          <t>drowsiness</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -9422,22 +10006,22 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2012_CVPR_Borji</t>
+          <t>2012_T-ITS_Jimenez</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>hazard anticipation</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>IVIS: visual-manual, conversation: cognitive</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -9452,24 +10036,24 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>distraction</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>road type</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>monitoring</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2011_T-ITS_Wollmer</t>
+          <t>2012_ITSC_Mori</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -9479,17 +10063,17 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>lane change</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>IVIS: visual-manual, cell phone dial: visual-manual</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>duration</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -9499,12 +10083,12 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>distraction</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>traffic</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -9516,12 +10100,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2011_T-ITS_Lee</t>
+          <t>2012_ITSC_Hirayama</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -9531,7 +10115,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>search task: visual-manual</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -9546,12 +10130,12 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>distraction</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>lighting</t>
+          <t>traffic</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -9563,12 +10147,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2011_OptEng_Jo</t>
+          <t>2012_HumanFactors_Liang</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -9593,7 +10177,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>distraction, drowsiness</t>
+          <t>distraction</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -9610,12 +10194,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2011_IET_Flores</t>
+          <t>2012_CVPR_Borji</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -9640,7 +10224,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>drowsiness, distraction</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -9650,14 +10234,14 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2011_BMVC_Borji</t>
+          <t>2011_T-ITS_Wollmer</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -9672,7 +10256,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>IVIS: visual-manual, cell phone dial: visual-manual</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -9687,7 +10271,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>distraction</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -9697,14 +10281,14 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>monitoring</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2010_JCTA_Zhang</t>
+          <t>2011_T-ITS_Lee</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -9734,12 +10318,12 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>drowsiness</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>lighting</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -9751,7 +10335,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2010_IV_Friedrichs</t>
+          <t>2011_OptEng_Jo</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -9781,7 +10365,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>drowsiness</t>
+          <t>distraction, drowsiness</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -9798,45 +10382,233 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
+          <t>2011_IET_Flores</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>drowsiness, distraction</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>monitoring</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2011_BMVC_Borji</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2010_JCTA_Zhang</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>drowsiness</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>monitoring</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2010_IV_Friedrichs</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>drowsiness</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>monitoring</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
           <t>2010_ACCV_Pugeault</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
         <is>
           <t>road type, intersection</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>lateral control, longitudinal control, explainability</t>
         </is>

--- a/spreadsheets/practical.xlsx
+++ b/spreadsheets/practical.xlsx
@@ -4857,7 +4857,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2016_TITS_Li</t>
+          <t>2016_T-ITS_Li</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -6397,7 +6397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K108"/>
+  <dimension ref="A1:K106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6636,12 +6636,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/TITS.2020.3044678</t>
+          <t>https://doi.org/10.1109/TITS.2021.3055120</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021_T-ITS_Fang</t>
+          <t>2021_T-ITS_Amadori</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -6651,12 +6651,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>hazard anticipation</t>
+          <t>lane change</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -6693,17 +6693,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/TITS.2021.3055120</t>
+          <t>https://openaccess.thecvf.com/content_WACV_2020/papers/Xia_Periphery-Fovea_Multi-Resolution_Driving_Model_Guided_by_Human_Attention_WACV_2020_paper.pdf</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021_T-ITS_Amadori</t>
+          <t>2020_WACV_Xia</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Scene gaze</t>
+          <t>Self-driving</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -6711,11 +6711,7 @@
           <t>+</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>lane change</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>-</t>
@@ -6743,19 +6739,19 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>longitudinal control</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://arxiv.org/pdf/1912.07773.pdf</t>
+          <t>https://doi.org/10.1109/TITS.2019.2915540</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021_arXiv_Baee</t>
+          <t>2020_T-ITS_Deng</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -6770,7 +6766,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>hazard anticipation</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -6780,7 +6776,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>duration</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -6790,7 +6786,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>distraction</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -6800,32 +6796,36 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>monitoring, warning/guidance</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://openaccess.thecvf.com/content_WACV_2020/papers/Xia_Periphery-Fovea_Multi-Resolution_Driving_Model_Guided_by_Human_Attention_WACV_2020_paper.pdf</t>
+          <t>https://doi.org/10.1109/IV47402.2020.9304573</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020_WACV_Xia</t>
+          <t>2020_IV_Rangesh</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Scene gaze</t>
+          <t>In-vehicle gaze</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>-</t>
@@ -6853,29 +6853,29 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>longitudinal control</t>
+          <t>monitoring</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/TITS.2019.2915540</t>
+          <t>https://doi.org/10.1109/ITSC45102.2020.9294686</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020_T-ITS_Deng</t>
+          <t>2020_ITSC_Dari</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Scene gaze</t>
+          <t>Inattention detection</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>drowsiness</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -6917,17 +6917,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/IV47402.2020.9304573</t>
+          <t>https://doi.org/10.1109/IROS45743.2020.9341782</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2020_IV_Rangesh</t>
+          <t>2020_IROS_Dua</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>In-vehicle gaze</t>
+          <t>Driver awareness</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -6962,29 +6962,29 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>lighting</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/ITSC45102.2020.9294686</t>
+          <t>https://doi.org/10.1145/3382507.3417967</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2020_ITSC_Dari</t>
+          <t>2020_ICMI_Stappen</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Inattention detection</t>
+          <t>In-vehicle gaze</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -7014,12 +7014,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>drowsiness</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>lighting</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -7031,22 +7031,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/IROS45743.2020.9341782</t>
+          <t>https://doi.org/10.1177/0018720820927687</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2020_IROS_Dua</t>
+          <t>2020_HumanFactors_Jokinen</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Driver awareness</t>
+          <t>In-vehicle gaze</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -7056,7 +7056,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>IVIS: visual-manual</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -7071,12 +7071,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>distraction</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>lighting</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -7088,22 +7088,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3382507.3417967</t>
+          <t>https://openaccess.thecvf.com/content_CVPRW_2020/papers/w20/Cultrera_Explaining_Autonomous_Driving_by_Learning_End-to-End_Visual_Attention_CVPRW_2020_paper.pdf</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2020_ICMI_Stappen</t>
+          <t>2020_CVPRW_Cultrera</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>In-vehicle gaze</t>
+          <t>Self-driving</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -7133,29 +7133,29 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>lighting</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>lateral control, explainability</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/0018720820927687</t>
+          <t>https://openaccess.thecvf.com/content_CVPR_2020/papers/Pal_Looking_at_the_Right_Stuff_-_Guided_Semantic-Gaze_for_Autonomous_CVPR_2020_paper.pdf</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2020_HumanFactors_Jokinen</t>
+          <t>2020_CVPR_Pal</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>In-vehicle gaze</t>
+          <t>Scene gaze</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -7170,7 +7170,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>IVIS: visual-manual</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -7185,7 +7185,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>distraction</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -7202,17 +7202,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://openaccess.thecvf.com/content_CVPRW_2020/papers/w20/Cultrera_Explaining_Autonomous_Driving_by_Learning_End-to-End_Visual_Attention_CVPRW_2020_paper.pdf</t>
+          <t>https://arxiv.org/pdf/2003.06045.pdf</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2020_CVPRW_Cultrera</t>
+          <t>2020_arXiv_Zhang</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Self-driving</t>
+          <t>Scene gaze</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -7252,19 +7252,19 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>lateral control, explainability</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://openaccess.thecvf.com/content_CVPR_2020/papers/Pal_Looking_at_the_Right_Stuff_-_Guided_Semantic-Gaze_for_Autonomous_CVPR_2020_paper.pdf</t>
+          <t>https://doi.org/10.1109/WACV.2019.00035</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2020_CVPR_Pal</t>
+          <t>2019_WACV_Tavakoli</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -7316,17 +7316,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://arxiv.org/pdf/2003.06045.pdf</t>
+          <t>https://doi.org/10.1109/TMC.2019.2962764</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2020_arXiv_Zhang</t>
+          <t>2019_TMC_Fan</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Scene gaze</t>
+          <t>Inattention detection</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Cell phone dialing: visual-manual, text entry: visual-manual, text reading: visual, drinking/eating: visual-manual</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -7356,7 +7356,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>distraction</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -7366,29 +7366,29 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>monitoring, warning/guidance</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/WACV.2019.00035</t>
+          <t>https://doi.org/10.1109/TITS.2019.2939676</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2019_WACV_Tavakoli</t>
+          <t>2019_T-ITS_Yang</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Scene gaze</t>
+          <t>Driver awareness</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -7398,7 +7398,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t xml:space="preserve">watching video: visual, reading book: visual-manual, cell phone gaming: visual-manual </t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -7413,7 +7413,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>distraction</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -7423,19 +7423,19 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>monitoring</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/TMC.2019.2962764</t>
+          <t>https://doi.org/10.1109/TITS.2019.2892155</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2019_TMC_Fan</t>
+          <t>2019_T-ITS_Chiou</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -7445,7 +7445,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Cell phone dialing: visual-manual, text entry: visual-manual, text reading: visual, drinking/eating: visual-manual</t>
+          <t>cell phone using: visual-manual, conversation: cognitive, drinking/eating: visual-manual</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -7470,7 +7470,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>distraction</t>
+          <t>distraction, drowsiness</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -7480,29 +7480,29 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>monitoring, warning/guidance</t>
+          <t>monitoring</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/TITS.2019.2939676</t>
+          <t>https://doi.org/10.1109/IVS.2019.8814210</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2019_T-ITS_Yang</t>
+          <t>2019_IV_Rahimpour</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Driver awareness</t>
+          <t>Scene gaze</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -7512,7 +7512,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve">watching video: visual, reading book: visual-manual, cell phone gaming: visual-manual </t>
+          <t>-</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -7527,39 +7527,39 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>distraction</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>intersection</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>lateral control</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/TITS.2019.2892155</t>
+          <t>https://doi.org/10.1109/IVS.2019.8814287</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2019_T-ITS_Chiou</t>
+          <t>2019_IV_Akai</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Inattention detection</t>
+          <t>Action anticipation</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -7569,7 +7569,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>cell phone using: visual-manual, conversation: cognitive, drinking/eating: visual-manual</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -7584,12 +7584,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>distraction, drowsiness</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>intersection</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -7601,12 +7601,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/IVS.2019.8814210</t>
+          <t>https://doi.org/10.1109/ITSC.2019.8917337</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2019_IV_Rahimpour</t>
+          <t>2019_ITSC_Ning</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -7646,34 +7646,34 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>intersection</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>lateral control</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/IVS.2019.8814287</t>
+          <t>https://doi.org/10.1109/IROS40897.2019.8967843</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2019_IV_Akai</t>
+          <t>2019_IROSW_Yuying</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Action anticipation</t>
+          <t>Self-driving</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -7703,34 +7703,34 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>intersection</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>lateral control</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/ITSC.2019.8917337</t>
+          <t>https://doi.org/10.1109/ACCESS.2019.2891971</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2019_ITSC_Ning</t>
+          <t>2019_IEEEAccess_Zhang</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Scene gaze</t>
+          <t>Inattention detection</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -7755,7 +7755,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>drowsiness</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -7765,24 +7765,24 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>monitoring</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/IROS40897.2019.8967843</t>
+          <t>https://doi.org/10.1109/ACCESS.2019.2936663</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2019_IROSW_Yuying</t>
+          <t>2019_IEEEAccess_Deng</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Self-driving</t>
+          <t>Inattention detection</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -7812,39 +7812,39 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>drowsiness</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>lighting</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>lateral control</t>
+          <t>monitoring</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/ACCESS.2019.2891971</t>
+          <t>https://doi.org/10.1109/ICRA.2019.8794224</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2019_IEEEAccess_Zhang</t>
+          <t>2019_ICRA_Wang</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Inattention detection</t>
+          <t>Self-driving</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -7869,7 +7869,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>drowsiness</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -7879,29 +7879,29 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>lateral control, longitudinal control, explainability</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/ACCESS.2019.2936663</t>
+          <t>https://doi.org/10.1109/ICRA.2019.8793970</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2019_IEEEAccess_Deng</t>
+          <t>2019_ICRA_Gao</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Inattention detection</t>
+          <t>Scene gaze</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -7926,29 +7926,29 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>drowsiness</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>lighting</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>lateral control, longitudinal control</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/ICRA.2019.8794224</t>
+          <t>https://openaccess.thecvf.com/content_CVPR_2019/papers/Kim_Grounding_Human-To-Vehicle_Advice_for_Self-Driving_Vehicles_CVPR_2019_paper.pdf</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2019_ICRA_Wang</t>
+          <t>2019_CVPR_Kim</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -7993,19 +7993,19 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>lateral control, longitudinal control, explainability</t>
+          <t>lateral control, warning/guidance</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/ICRA.2019.8793970</t>
+          <t>https://bmvc2019.org/wp-content/uploads/papers/0996-paper.pdf</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2019_ICRA_Gao</t>
+          <t>2019_BMVC_Palasek</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -8045,39 +8045,39 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>traffic</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>lateral control, longitudinal control</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://openaccess.thecvf.com/content_CVPR_2019/papers/Kim_Grounding_Human-To-Vehicle_Advice_for_Self-Driving_Vehicles_CVPR_2019_paper.pdf</t>
+          <t>https://doi.org/10.1145/3362743.3362962</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2019_CVPR_Kim</t>
+          <t>2019_ACM_Ma</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Self-driving</t>
+          <t>Driver awareness</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>hazard anticipation</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -8107,24 +8107,24 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>lateral control, warning/guidance</t>
+          <t>monitoring, warning/guidance</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://bmvc2019.org/wp-content/uploads/papers/0996-paper.pdf</t>
+          <t>https://doi.org/10.1145/3314111.3319846</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2019_BMVC_Palasek</t>
+          <t>2019_ACM_Liu</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Scene gaze</t>
+          <t>Self-driving</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -8159,29 +8159,29 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>traffic</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>lateral control</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3362743.3362962</t>
+          <t>https://doi.org/10.1109/TIV.2018.2843120</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2019_ACM_Ma</t>
+          <t>2018_TIV_Vora</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Driver awareness</t>
+          <t>In-vehicle gaze</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -8191,7 +8191,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>hazard anticipation</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -8221,34 +8221,34 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>monitoring, warning/guidance</t>
+          <t>monitoring</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3314111.3319846</t>
+          <t>https://doi.org/10.1109/TIV.2018.2804160</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2019_ACM_Liu</t>
+          <t>2018_TIV_Martin</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Self-driving</t>
+          <t>Action anticipation</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>lane change</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -8278,24 +8278,24 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>lateral control</t>
+          <t>monitoring</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/TIV.2018.2843120</t>
+          <t>https://doi.org/10.1109/TITS.2018.2883823</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2018_TIV_Vora</t>
+          <t>2018_T-ITS_Yu</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>In-vehicle gaze</t>
+          <t>Inattention detection</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -8325,12 +8325,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>drowsiness</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>lighting</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -8342,17 +8342,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/TIV.2018.2804160</t>
+          <t>https://doi.org/10.1109/TITS.2017.2766216</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2018_TIV_Martin</t>
+          <t>2018_T-ITS_Deng</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Action anticipation</t>
+          <t>Scene gaze</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -8362,7 +8362,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>lane change</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -8392,29 +8392,29 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/TITS.2018.2883823</t>
+          <t>https://doi.org/10.1109/TPAMI.2018.2845370</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2018_T-ITS_Yu</t>
+          <t>2018_PAMI_Palazzi</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Inattention detection</t>
+          <t>Scene gaze</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -8439,29 +8439,29 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>drowsiness</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>lighting</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/TITS.2017.2766216</t>
+          <t>https://doi.org/10.1109/ITSC.2018.8569438</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2018_T-ITS_Deng</t>
+          <t>2018_ITSC_Tawari</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -8471,7 +8471,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -8513,22 +8513,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/TPAMI.2018.2845370</t>
+          <t>https://doi.org/10.1109/ITSC.2018.8569655</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2018_PAMI_Palazzi</t>
+          <t>2018_ITSC_Schwehr</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Scene gaze</t>
+          <t>Driver awareness</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -8558,34 +8558,34 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>traffic</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>monitoring</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/ITSC.2018.8569438</t>
+          <t>https://doi.org/10.1109/ITSC.2018.8569709</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2018_ITSC_Tawari</t>
+          <t>2018_ITSC_Jha</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Scene gaze</t>
+          <t>In-vehicle gaze</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -8620,29 +8620,29 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>monitoring</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/ITSC.2018.8569655</t>
+          <t>https://doi.org/10.1109/IROS.2018.8594305</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2018_ITSC_Schwehr</t>
+          <t>2018_IROS_Wang</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Driver awareness</t>
+          <t>Inattention detection</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -8652,7 +8652,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N-back task: visual</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -8667,12 +8667,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>distraction</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>traffic</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -8684,22 +8684,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/ITSC.2018.8569709</t>
+          <t>https://doi.org/10.1109/ICPR.2018.8546051</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2018_ITSC_Jha</t>
+          <t>2018_ICPR_He</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>In-vehicle gaze</t>
+          <t>Self-driving</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -8734,24 +8734,24 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>lateral control</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/IROS.2018.8594305</t>
+          <t>https://openaccess.thecvf.com/content_ECCV_2018/papers/Jinkyu_Kim_Textual_Explanations_for_ECCV_2018_paper.pdf</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2018_IROS_Wang</t>
+          <t>2018_ECCV_Kim</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Inattention detection</t>
+          <t>Self-driving</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -8766,7 +8766,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>N-back task: visual</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -8781,7 +8781,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>distraction</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -8791,24 +8791,24 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>lateral control, explainability</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/ICPR.2018.8546051</t>
+          <t>https://doi.org/10.1007/978-3-030-20873-8_42</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2018_ICPR_He</t>
+          <t>2018_ACCV_Xia</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Self-driving</t>
+          <t>Scene gaze</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -8848,29 +8848,29 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>lateral control</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://openaccess.thecvf.com/content_ECCV_2018/papers/Jinkyu_Kim_Textual_Explanations_for_ECCV_2018_paper.pdf</t>
+          <t>https://doi.org/10.1109/WACV.2017.52</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2018_ECCV_Kim</t>
+          <t>2017_WACV_Palmer</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Self-driving</t>
+          <t>Scene gaze</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -8900,24 +8900,24 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>traffic, road type</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>lateral control, explainability</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-3-030-20873-8_42</t>
+          <t>https://doi.org/10.1016/j.patcog.2016.08.029</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2018_ACCV_Xia</t>
+          <t>2017_PR_Ohn-Bar</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -8969,17 +8969,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/WACV.2017.52</t>
+          <t>https://doi.org/10.1109/IVS.2017.7995781</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2017_WACV_Palmer</t>
+          <t>2017_IV_Zabihi</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Scene gaze</t>
+          <t>Driver awareness</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -9014,34 +9014,34 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>traffic, road type</t>
+          <t>sign</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>monitoring, warning/guidance</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.patcog.2016.08.029</t>
+          <t>https://doi.org/10.1109/IVS.2017.7995822</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2017_PR_Ohn-Bar</t>
+          <t>2017_IV_Vora</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Scene gaze</t>
+          <t>In-vehicle gaze</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -9076,29 +9076,29 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>monitoring</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/IVS.2017.7995781</t>
+          <t>https://doi.org/10.1109/IVS.2017.7995828</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2017_IV_Zabihi</t>
+          <t>2017_IV_Tawari</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Driver awareness</t>
+          <t>Scene gaze</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -9128,34 +9128,34 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>sign</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>monitoring, warning/guidance</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/IVS.2017.7995822</t>
+          <t>https://doi.org/10.1109/IVS.2017.7995833</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2017_IV_Vora</t>
+          <t>2017_IV_Palazzi</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>In-vehicle gaze</t>
+          <t>Scene gaze</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -9190,24 +9190,24 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/IVS.2017.7995828</t>
+          <t>https://doi.org/10.1109/IVS.2017.7995928</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2017_IV_Tawari</t>
+          <t>2017_IV_Martin</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Scene gaze</t>
+          <t>Action anticipation</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -9217,7 +9217,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>lane change, maintain lane</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -9247,29 +9247,29 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>monitoring</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/IVS.2017.7995833</t>
+          <t>https://doi.org/10.1109/ITSC.2017.8317586</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2017_IV_Palazzi</t>
+          <t>2017_ITSC_Schwehr</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Scene gaze</t>
+          <t>Driver awareness</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -9299,39 +9299,39 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>road users</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>monitoring</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/IVS.2017.7995928</t>
+          <t>https://doi.org/10.1049/iet-its.2017.0183</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2017_IV_Martin</t>
+          <t>2017_IET_Zhao</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Action anticipation</t>
+          <t>Inattention detection</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>lane change, maintain lane</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -9351,7 +9351,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>drowsiness</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -9368,22 +9368,22 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/ITSC.2017.8317586</t>
+          <t>https://openaccess.thecvf.com/content_ICCV_2017/papers/Kim_Interpretable_Learning_for_ICCV_2017_paper.pdf</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2017_ITSC_Schwehr</t>
+          <t>2017_ICCV_Kim</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Driver awareness</t>
+          <t>Self-driving</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -9413,34 +9413,34 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>road users</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>lateral control, explainability</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1049/iet-its.2017.0183</t>
+          <t>https://doi.org/10.1145/3025453.3025929</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2017_IET_Zhao</t>
+          <t>2017_CHI_Fridman</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Inattention detection</t>
+          <t>In-vehicle gaze</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -9450,7 +9450,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>conversation: cognitive, IVIS: visual-manual</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -9460,17 +9460,17 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>age, gender</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>drowsiness</t>
+          <t>distraction, drowsiness</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>traffic, road type, lighting, weather</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -9482,12 +9482,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://openaccess.thecvf.com/content_ICCV_2017/papers/Kim_Interpretable_Learning_for_ICCV_2017_paper.pdf</t>
+          <t>https://arxiv.org/pdf/1704.07911.pdf</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2017_ICCV_Kim</t>
+          <t>2017_arXiv_Bojarski</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -9539,22 +9539,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3025453.3025929</t>
+          <t>https://doi.org/10.1007/978-3-319-54526-4_9</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2017_CHI_Fridman</t>
+          <t>2017_ACCV_Weng</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>In-vehicle gaze</t>
+          <t>Inattention detection</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -9564,7 +9564,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>conversation: cognitive, IVIS: visual-manual</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -9574,17 +9574,17 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>age, gender</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>distraction, drowsiness</t>
+          <t>drowsiness</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>traffic, road type, lighting, weather</t>
+          <t>lighting</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -9596,22 +9596,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://arxiv.org/pdf/1704.07911.pdf</t>
+          <t>https://doi.org/10.1007/978-3-319-54526-4_11</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2017_arXiv_Bojarski</t>
+          <t>2017_ACCV_Shih</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Self-driving</t>
+          <t>Inattention detection</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -9636,29 +9636,29 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>drowsiness</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>lighting</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>lateral control, explainability</t>
+          <t>monitoring</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-3-319-54526-4_9</t>
+          <t>https://doi.org/10.1016/j.trf.2016.09.015</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2017_ACCV_Weng</t>
+          <t>2016_TransRes_Munoz</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -9678,7 +9678,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>IVIS: visual-manual, listening to music: cognitive</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -9693,12 +9693,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>drowsiness</t>
+          <t>distraction</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>lighting</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -9710,17 +9710,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-3-319-54526-4_11</t>
+          <t>https://doi.org/10.1109/TITS.2015.2493451</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2017_ACCV_Shih</t>
+          <t>2016_T-ITS_Li</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Inattention detection</t>
+          <t>Action anticipation</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -9735,7 +9735,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>IVIS: visual-manual, cell phone dial: visual-manual, conversation: cognitive</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -9750,12 +9750,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>drowsiness</t>
+          <t>distraction</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>lighting</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -9767,17 +9767,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.trf.2016.09.015</t>
+          <t>https://doi.org/10.1109/TITS.2016.2526050</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2016_TransRes_Munoz</t>
+          <t>2016_T-ITS_Lundgren</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Inattention detection</t>
+          <t>In-vehicle gaze</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -9792,7 +9792,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>IVIS: visual-manual, listening to music: cognitive</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -9807,7 +9807,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>distraction</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -9824,22 +9824,22 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/TITS.2015.2493451</t>
+          <t>https://doi.org/10.1109/TITS.2015.2506602</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2016_TITS_Li</t>
+          <t>2016_T-ITS_Liao</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Action anticipation</t>
+          <t>Inattention detection</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -9849,7 +9849,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>IVIS: visual-manual, cell phone dial: visual-manual, conversation: cognitive</t>
+          <t>clock task: cognitive</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -9869,7 +9869,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>road type, intersection</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -9881,22 +9881,22 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/TITS.2016.2526050</t>
+          <t>https://doi.org/10.1109/TITS.2015.2493451</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2016_T-ITS_Lundgren</t>
+          <t>2016_T-ITS_Li</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>In-vehicle gaze</t>
+          <t>Inattention detection</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -9906,7 +9906,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>conversation: cognitive, IVIS: visual-manual, cell phone: visual-manual</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -9921,7 +9921,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>distraction</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -9938,17 +9938,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/TITS.2015.2506602</t>
+          <t>https://doi.org/10.1109/TITS.2016.2535402</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2016_T-ITS_Liao</t>
+          <t>2016_T-ITS_Deng</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Inattention detection</t>
+          <t>Scene gaze</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -9963,7 +9963,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>clock task: cognitive</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -9978,34 +9978,34 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>distraction</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>road type, intersection</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/TITS.2015.2493451</t>
+          <t>https://doi.org/10.1109/IVS.2016.7535425</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2016_T-ITS_Li</t>
+          <t>2016_IV_Roth</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Inattention detection</t>
+          <t>Driver awareness</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -10015,12 +10015,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>hazard anticipation</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>conversation: cognitive, IVIS: visual-manual, cell phone: visual-manual</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -10035,34 +10035,34 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>distraction</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>road users</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>monitoring, warning/guidance</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/TITS.2016.2535402</t>
+          <t>https://doi.org/10.1109/IVS.2016.7535416</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2016_T-ITS_Deng</t>
+          <t>2016_IV_Liao</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Scene gaze</t>
+          <t>Inattention detection</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -10077,7 +10077,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>clock task: cognitive</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -10092,44 +10092,44 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>distraction</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>road type, intersection</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>monitoring</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/IVS.2016.7535425</t>
+          <t>https://doi.org/10.1109/ITSC.2016.7795623</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2016_IV_Roth</t>
+          <t>2016_ITSC_Vasli</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Driver awareness</t>
+          <t>In-vehicle gaze</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>hazard anticipation</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -10154,34 +10154,34 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>road users</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>monitoring, warning/guidance</t>
+          <t>monitoring</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/IVS.2016.7535416</t>
+          <t>https://doi.org/10.1109/MIS.2016.47</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2016_IV_Liao</t>
+          <t>2016_IS_Fridman</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Inattention detection</t>
+          <t>In-vehicle gaze</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -10191,7 +10191,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>clock task: cognitive</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -10206,12 +10206,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>distraction</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>road type, intersection</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -10223,12 +10223,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/ITSC.2016.7795623</t>
+          <t>https://doi.org/10.1049/iet-cvi.2015.0296</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2016_ITSC_Vasli</t>
+          <t>2016_IET_Fridman</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -10280,17 +10280,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/MIS.2016.47</t>
+          <t>https://doi.org/10.1109/ICRA.2016.7487485</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2016_IS_Fridman</t>
+          <t>2016_ICRA_Langner</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>In-vehicle gaze</t>
+          <t>Driver awareness</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -10325,29 +10325,29 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>road users</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>monitoring, warning/guidance</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1049/iet-cvi.2015.0296</t>
+          <t>https://doi.org/10.1109/ICRA.2016.7487478</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2016_IET_Fridman</t>
+          <t xml:space="preserve">2016_ICRA_Jain </t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>In-vehicle gaze</t>
+          <t>Action anticipation</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -10394,22 +10394,22 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/ICRA.2016.7487485</t>
+          <t>https://doi.org/10.1109/ICRA.2016.7487478</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2016_ICRA_Langner</t>
+          <t>2016_ICRA_Jain</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Driver awareness</t>
+          <t>Action anticipation</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -10439,44 +10439,44 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>road users</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>monitoring, warning/guidance</t>
+          <t>monitoring</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/ICRA.2016.7487478</t>
+          <t>https://doi.org/10.1177%2F0018720816647607</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve">2016_ICRA_Jain </t>
+          <t>2016_HumanFactors_Zhang</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Action anticipation</t>
+          <t>Inattention detection</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>vehicle following, lane change</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>arrow task: visual-manual, navigation: cognitive</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -10491,7 +10491,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>distraction</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -10508,22 +10508,22 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/ICRA.2016.7487478</t>
+          <t>https://doi.org/10.1109/BIGCOMP.2016.7425813</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2016_ICRA_Jain</t>
+          <t>2016_BigComp_Choi</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Action anticipation</t>
+          <t>In-vehicle gaze</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -10565,17 +10565,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177%2F0018720816647607</t>
+          <t>https://arxiv.org/pdf/1611.05418v1.pdf</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2016_HumanFactors_Zhang</t>
+          <t>2016_arXiv_Bojarski_1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Inattention detection</t>
+          <t>Scene gaze</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -10585,12 +10585,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>vehicle following, lane change</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>arrow task: visual-manual, navigation: cognitive</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -10605,7 +10605,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>distraction</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -10615,24 +10615,24 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>lateral control, explainability</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/BIGCOMP.2016.7425813</t>
+          <t>https://doi.org/10.3390/app6050137</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2016_BigComp_Choi</t>
+          <t>2016_ApplSci_Choi</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>In-vehicle gaze</t>
+          <t>Inattention detection</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -10662,7 +10662,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>drowsiness</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -10679,17 +10679,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://arxiv.org/pdf/1611.05418v1.pdf</t>
+          <t>https://doi.org/10.1016/j.aap.2015.09.002</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2016_arXiv_Bojarski_1</t>
+          <t>2016_AccidentAnalysis_Wang</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Scene gaze</t>
+          <t>Inattention detection</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -10719,39 +10719,35 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>drowsiness</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
-          <t>lateral control, explainability</t>
+          <t>monitoring</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/app6050137</t>
+          <t>https://doi.org/10.1109/TVT.2015.2487826</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2016_ApplSci_Choi</t>
+          <t>2015_TranVehTech_Pugeault</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Inattention detection</t>
+          <t>Action anticipation</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -10776,7 +10772,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>drowsiness</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -10786,29 +10782,29 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>lateral control, explainability</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.aap.2015.09.002</t>
+          <t>https://doi.org/10.1109/TITS.2015.2396031</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2016_AccidentAnalysis_Wang</t>
+          <t>2015_T-ITS_Vicente</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Inattention detection</t>
+          <t>In-vehicle gaze</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -10833,10 +10829,14 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>drowsiness</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr"/>
+          <t>distraction</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>monitoring</t>
@@ -10846,32 +10846,32 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/TVT.2015.2487826</t>
+          <t>https://doi.org/10.1109/TITS.2015.2496157</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2015_TranVehTech_Pugeault</t>
+          <t>2015_T-ITS_Liu</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Action anticipation</t>
+          <t>Inattention detection</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>vehicle following</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>cognitive tone task: cognitive</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -10886,7 +10886,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>distraction</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -10896,29 +10896,29 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>lateral control, explainability</t>
+          <t>monitoring</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/TITS.2015.2396031</t>
+          <t>https://doi.org/10.1109/TITS.2014.2324414</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2015_T-ITS_Vicente</t>
+          <t>2015_T-ITS_Li</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>In-vehicle gaze</t>
+          <t>Inattention detection</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -10928,7 +10928,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>conversation: cognitive, IVIS: visual-manual, cell phone: visual-manual</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -10960,32 +10960,32 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/TITS.2015.2496157</t>
+          <t>https://openaccess.thecvf.com/content_iccv_2015/papers/Jain_Car_That_Knows_ICCV_2015_paper.pdf</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2015_T-ITS_Liu</t>
+          <t>2015_ICCV_Jain</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Inattention detection</t>
+          <t>Action anticipation</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>vehicle following</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>cognitive tone task: cognitive</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -11000,7 +11000,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>distraction</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -11017,17 +11017,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/TITS.2014.2324414</t>
+          <t>https://doi.org/10.1109/TSMC.2013.2279715</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2015_T-ITS_Li</t>
+          <t>2014_TransSysManCybernetics_Borji</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Inattention detection</t>
+          <t>Scene gaze</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -11042,7 +11042,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>conversation: cognitive, IVIS: visual-manual, cell phone: visual-manual</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -11057,7 +11057,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>distraction</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -11067,29 +11067,29 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://openaccess.thecvf.com/content_iccv_2015/papers/Jain_Car_That_Knows_ICCV_2015_paper.pdf</t>
+          <t>https://doi.org/10.1109/IVS.2014.6856607</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2015_ICCV_Jain</t>
+          <t>2014_IV_Tawari</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Action anticipation</t>
+          <t>In-vehicle gaze</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -11131,22 +11131,22 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/TSMC.2013.2279715</t>
+          <t>https://doi.org/10.1109/IVS.2014.6856450</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2014_TransSysManCybernetics_Borji</t>
+          <t>2014_IV_Kowsari</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Scene gaze</t>
+          <t>Driver awareness</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -11181,24 +11181,24 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>monitoring</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/IVS.2014.6856607</t>
+          <t>https://doi.org/10.1109/ITSC.2014.6957880</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2014_IV_Tawari</t>
+          <t>2014_ITSC_Tawari_1</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>In-vehicle gaze</t>
+          <t>Driver awareness</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -11245,17 +11245,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/IVS.2014.6856450</t>
+          <t>https://doi.org/10.1109/ITSC.2014.6957817</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2014_IV_Kowsari</t>
+          <t>2014_ITSC_Tawari</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Driver awareness</t>
+          <t>In-vehicle gaze</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -11302,12 +11302,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/ITSC.2014.6957880</t>
+          <t>https://openaccess.thecvf.com/content_cvpr_2014/papers/Rezaei_Look_at_the_2014_CVPR_paper.pdf</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2014_ITSC_Tawari_1</t>
+          <t>2014_CVPR_Rezaei</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -11342,7 +11342,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>distraction</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -11352,39 +11352,39 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>monitoring, warning/guidance</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/ITSC.2014.6957817</t>
+          <t>https://doi.org/10.1016/j.trf.2013.09.019</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2014_ITSC_Tawari</t>
+          <t>2013_TR_Wortelen</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>In-vehicle gaze</t>
+          <t>Scene gaze</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>maintain lane, maintain speed</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>number read back task: visual</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -11399,7 +11399,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>distraction</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -11409,24 +11409,24 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://openaccess.thecvf.com/content_cvpr_2014/papers/Rezaei_Look_at_the_2014_CVPR_paper.pdf</t>
+          <t>https://doi.org/10.1109/TITS.2013.2262098</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2014_CVPR_Rezaei</t>
+          <t>2013_T-ITS_Mbouna</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Driver awareness</t>
+          <t>Inattention detection</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -11456,7 +11456,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>distraction</t>
+          <t>drowsiness</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -11466,19 +11466,19 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>monitoring, warning/guidance</t>
+          <t>monitoring</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.trf.2013.09.019</t>
+          <t>https://doi.org/10.1098/rstb.2013.0044</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2013_TR_Wortelen</t>
+          <t>2013_RSTB_Johnson</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -11498,7 +11498,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>number read back task: visual</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -11513,7 +11513,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>distraction</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -11530,22 +11530,22 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/TITS.2013.2262098</t>
+          <t>https://doi.org/10.1109/IVS.2013.6629443</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2013_T-ITS_Mbouna</t>
+          <t>2013_IV_Bar</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Inattention detection</t>
+          <t>Driver awareness</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -11570,7 +11570,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>drowsiness</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -11580,34 +11580,34 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>monitoring, warning/guidance</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1098/rstb.2013.0044</t>
+          <t>http://dx.doi.org/10.1155/2013/263983</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2013_RSTB_Johnson</t>
+          <t>2013_IJVT_Sigari</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Scene gaze</t>
+          <t>Inattention detection</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>maintain lane, maintain speed</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -11627,7 +11627,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>distraction, drowsiness</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -11637,29 +11637,29 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>monitoring</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/IVS.2013.6629443</t>
+          <t>http://dx.doi.org/10.1155/2013/648431</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2013_IV_Bar</t>
+          <t>2013_AdvMechEng_Jin</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Driver awareness</t>
+          <t>Inattention detection</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -11684,7 +11684,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>drowsiness</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -11694,19 +11694,19 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>monitoring, warning/guidance</t>
+          <t>monitoring</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1155/2013/263983</t>
+          <t>https://doi.org/10.1109/TITS.2012.2187517</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2013_IJVT_Sigari</t>
+          <t>2012_T-ITS_Jimenez</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -11721,12 +11721,12 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>hazard anticipation</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>IVIS: visual-manual, conversation: cognitive</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -11741,12 +11741,12 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>distraction, drowsiness</t>
+          <t>distraction</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>road type</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -11758,27 +11758,27 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>http://dx.doi.org/10.1155/2013/648431</t>
+          <t>https://doi.org/10.1109/ITSC.2012.6338802</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2013_AdvMechEng_Jin</t>
+          <t>2012_ITSC_Mori</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Inattention detection</t>
+          <t>Driver awareness</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>lane change</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -11788,7 +11788,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>duration</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -11798,12 +11798,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>drowsiness</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>traffic</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -11815,12 +11815,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/TITS.2012.2187517</t>
+          <t>https://doi.org/10.1109/ITSC.2012.6338634</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2012_T-ITS_Jimenez</t>
+          <t>2012_ITSC_Hirayama</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -11830,17 +11830,17 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>hazard anticipation</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>IVIS: visual-manual, conversation: cognitive</t>
+          <t>search task: visual-manual</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -11860,7 +11860,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>road type</t>
+          <t>traffic</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -11872,17 +11872,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/ITSC.2012.6338802</t>
+          <t>https://doi.org/10.1177%2F0018720812446965</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2012_ITSC_Mori</t>
+          <t>2012_HumanFactors_Liang</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Driver awareness</t>
+          <t>Inattention detection</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -11892,7 +11892,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>lane change</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -11902,7 +11902,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>duration</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -11912,12 +11912,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>distraction</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>traffic</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -11929,17 +11929,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/ITSC.2012.6338634</t>
+          <t>https://doi.org/10.1109/CVPR.2012.6247710</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2012_ITSC_Hirayama</t>
+          <t>2012_CVPR_Borji</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Inattention detection</t>
+          <t>Scene gaze</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -11954,7 +11954,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>search task: visual-manual</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -11969,29 +11969,29 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>distraction</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>traffic</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177%2F0018720812446965</t>
+          <t>https://doi.org/10.1109/TITS.2011.2119483</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2012_HumanFactors_Liang</t>
+          <t>2011_T-ITS_Wollmer</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -12011,7 +12011,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>IVIS: visual-manual, cell phone dial: visual-manual</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -12043,22 +12043,22 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/CVPR.2012.6247710</t>
+          <t>https://doi.org/10.1109/TITS.2010.2091503</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2012_CVPR_Borji</t>
+          <t>2011_T-ITS_Lee</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Scene gaze</t>
+          <t>In-vehicle gaze</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -12088,24 +12088,24 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>lighting</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>monitoring</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/TITS.2011.2119483</t>
+          <t>https://doi.org/10.1117/1.3657506</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2011_T-ITS_Wollmer</t>
+          <t>2011_OptEng_Jo</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -12115,7 +12115,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -12125,7 +12125,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>IVIS: visual-manual, cell phone dial: visual-manual</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -12140,7 +12140,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>distraction</t>
+          <t>distraction, drowsiness</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -12157,17 +12157,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/TITS.2010.2091503</t>
+          <t>https://doi.org/10.1049/iet-its.2009.0090</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2011_T-ITS_Lee</t>
+          <t>2011_IET_Flores</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>In-vehicle gaze</t>
+          <t>Inattention detection</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -12197,12 +12197,12 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>drowsiness, distraction</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>lighting</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -12214,22 +12214,22 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1117/1.3657506</t>
+          <t>http://www.bmva.org/bmvc/2011/proceedings/paper85/paper85.pdf</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2011_OptEng_Jo</t>
+          <t>2011_BMVC_Borji</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Inattention detection</t>
+          <t>Scene gaze</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -12254,7 +12254,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>distraction, drowsiness</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -12264,19 +12264,19 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1049/iet-its.2009.0090</t>
+          <t>https://doi.org/10.1007/s11768-010-8043-0</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2011_IET_Flores</t>
+          <t>2010_JCTA_Zhang</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -12311,7 +12311,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>drowsiness, distraction</t>
+          <t>drowsiness</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -12328,22 +12328,22 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>http://www.bmva.org/bmvc/2011/proceedings/paper85/paper85.pdf</t>
+          <t>https://doi.org/10.1109/IVS.2010.5548039</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2011_BMVC_Borji</t>
+          <t>2010_IV_Friedrichs</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Scene gaze</t>
+          <t>Inattention detection</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -12368,7 +12368,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>drowsiness</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -12378,29 +12378,29 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>monitoring</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s11768-010-8043-0</t>
+          <t>https://doi.org/10.1007/978-3-642-15567-3_12</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2010_JCTA_Zhang</t>
+          <t>2010_ACCV_Pugeault</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Inattention detection</t>
+          <t>Action anticipation</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -12425,129 +12425,15 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>drowsiness</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>road type, intersection</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
-        <is>
-          <t>monitoring</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/IVS.2010.5548039</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2010_IV_Friedrichs</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Inattention detection</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>drowsiness</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>monitoring</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1007/978-3-642-15567-3_12</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2010_ACCV_Pugeault</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Action anticipation</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>road type, intersection</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
         <is>
           <t>lateral control, longitudinal control, explainability</t>
         </is>
